--- a/CPUE/CPUE_MODELOS.xlsx
+++ b/CPUE/CPUE_MODELOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macristina.perez\Documents\GitHub\BSB_PP\CPUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E470C1A7-5A34-4965-9327-CC5F0B567660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5279B31-702A-49B2-B5DB-CE92FE77DF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="65">
   <si>
     <t>Df</t>
   </si>
@@ -232,6 +232,9 @@
   <si>
     <t>as.factor(Year)2013</t>
   </si>
+  <si>
+    <t>Mean value</t>
+  </si>
 </sst>
 </file>
 
@@ -297,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -420,11 +423,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -494,7 +534,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,13 +543,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -703,45 +748,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Buzzards Bay summary'!$M$7:$M$19</c:f>
+              <c:f>'Buzzards Bay summary'!$L$7:$L$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.58058314736778682</c:v>
+                  <c:v>0.84693591968449999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75896475048958967</c:v>
+                  <c:v>1.114858229025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6181157705784186</c:v>
+                  <c:v>0.90957866569700008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27374880214482317</c:v>
+                  <c:v>9.5113800145000024E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.796874284219925</c:v>
+                  <c:v>1.9767068203890001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2397804316355514</c:v>
+                  <c:v>1.605592466409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0365686895955128</c:v>
+                  <c:v>1.4265740951449999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95720728816026723</c:v>
+                  <c:v>1.346922864797</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3735120042345579</c:v>
+                  <c:v>1.7080291401345</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91918838093679012</c:v>
+                  <c:v>1.306393980797</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97679282368137055</c:v>
+                  <c:v>1.3671774707565001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4686636269554094</c:v>
+                  <c:v>1.7750110637344998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,45 +886,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Buzzards Bay summary'!$M$56:$M$68</c:f>
+              <c:f>'Buzzards Bay summary'!$L$56:$L$68</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.53824065273791077</c:v>
+                  <c:v>2.2498726211690334</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75953057279499558</c:v>
+                  <c:v>3.1748754613382846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65801095789353514</c:v>
+                  <c:v>2.7505184364339637</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28079985924022827</c:v>
+                  <c:v>1.1737573372042136</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6118055417484494</c:v>
+                  <c:v>6.7374270980496984</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.200995734043937</c:v>
+                  <c:v>5.0202217287403705</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1284821132618128</c:v>
+                  <c:v>4.717111197735985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92878059918358902</c:v>
+                  <c:v>3.8823489651823988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3905065498909688</c:v>
+                  <c:v>5.8123863373048987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0161762364008808</c:v>
+                  <c:v>4.2476670629228757</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0308405550901432</c:v>
+                  <c:v>4.3089646422848977</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4558306277135495</c:v>
+                  <c:v>6.0854442221906488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -888,6 +933,132 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8063-4D37-AC7E-E4205E6D7043}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Buzzards Bay summary'!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Buzzards Bay summary'!$K$7:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Buzzards Bay summary'!$N$7:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42D9-44E6-8D5A-D49FACE85BFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -957,7 +1128,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1014,8 +1185,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.7909580052493439"/>
           <c:y val="0.1118974190726159"/>
-          <c:w val="0.18681977252843393"/>
-          <c:h val="0.15625109361329836"/>
+          <c:w val="0.20250043744531934"/>
+          <c:h val="0.23437664041994752"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1261,45 +1432,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Buzzards Bay summary'!$M$32:$M$44</c:f>
+              <c:f>'Buzzards Bay summary'!$L$32:$L$44</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.5322608365285566</c:v>
+                  <c:v>-1.2267990842355001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53628572769643545</c:v>
+                  <c:v>-1.2192656545510001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44788948368253323</c:v>
+                  <c:v>-1.3993862338750001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23674584758148287</c:v>
+                  <c:v>-2.0369455549910001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7808087433848581</c:v>
+                  <c:v>0.7337604713564998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44942997529659201</c:v>
+                  <c:v>-1.3959526894175001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5784633277797373</c:v>
+                  <c:v>-1.1435575949350001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8278427926176819</c:v>
+                  <c:v>6.9590010049999625E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0958675826226305</c:v>
+                  <c:v>-0.50463110621500018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.41780955808289028</c:v>
+                  <c:v>-1.468907021615</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.78592686460667893</c:v>
+                  <c:v>-0.83706900712300014</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3106692601199219</c:v>
+                  <c:v>-0.32563957632350016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1396,45 +1567,45 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Buzzards Bay summary'!$M$80:$M$92</c:f>
+              <c:f>'Buzzards Bay summary'!$L$80:$L$92</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.16078992662834879</c:v>
+                  <c:v>0.3203294971980486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29175434626235636</c:v>
+                  <c:v>0.39065708111865749</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.257661918532401</c:v>
+                  <c:v>0.34500755275393963</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12236972035093821</c:v>
+                  <c:v>0.16385222150766598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6386038726104961</c:v>
+                  <c:v>2.194079417100145</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22160204351535365</c:v>
+                  <c:v>0.29672362588144763</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33499925008498999</c:v>
+                  <c:v>0.44856171259042121</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.85805171646379674</c:v>
+                  <c:v>1.148925400073296</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58005985498755241</c:v>
+                  <c:v>0.77669619228149478</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.23319974786288658</c:v>
+                  <c:v>0.31225287295566323</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.41390772978530699</c:v>
+                  <c:v>0.55421962908814715</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6903913958062774</c:v>
+                  <c:v>0.92442937344482978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,6 +1614,132 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6506-472D-AC65-D613C0F1CEDC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Buzzards Bay summary'!$N$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Buzzards Bay summary'!$K$32:$K$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Buzzards Bay summary'!$N$32:$N$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A18-4524-8353-F9B734330027}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1512,7 +1809,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1569,8 +1866,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.81168022747156598"/>
           <c:y val="0.17208260425780109"/>
-          <c:w val="0.16054199475065617"/>
-          <c:h val="0.15625109361329836"/>
+          <c:w val="0.18831977252843393"/>
+          <c:h val="0.23437664041994752"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1724,7 +2021,7 @@
           <c:yMode val="edge"/>
           <c:x val="7.2886482939632541E-2"/>
           <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.88339107611548562"/>
+          <c:w val="0.79450218722659671"/>
           <c:h val="0.8416746864975212"/>
         </c:manualLayout>
       </c:layout>
@@ -1825,54 +2122,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Rhode Island summary'!$M$7:$M$21</c:f>
+              <c:f>'Rhode Island summary'!$L$7:$L$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.36438776132468909</c:v>
+                  <c:v>-0.16197549120000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5488211627030688</c:v>
+                  <c:v>0.24757856724999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55956191976227054</c:v>
+                  <c:v>0.26696012125000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53620840446094398</c:v>
+                  <c:v>0.2243288296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67377170963369781</c:v>
+                  <c:v>0.45269727359999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40053270387693263</c:v>
+                  <c:v>-6.7398649400000024E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3908453954948681</c:v>
+                  <c:v>1.1774729692499999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8413403358155018</c:v>
+                  <c:v>1.4580549586</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7747837797157637</c:v>
+                  <c:v>1.4212398100500001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1720504881025759</c:v>
+                  <c:v>1.0063159775999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1857108242820524</c:v>
+                  <c:v>1.01790365525</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.148475196016604</c:v>
+                  <c:v>0.98599635484999992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.93178013764815526</c:v>
+                  <c:v>0.77690281285000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1256819665251865</c:v>
+                  <c:v>0.96595025324999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3460482146376898</c:v>
+                  <c:v>1.1447342600499999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1978,54 +2275,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Rhode Island summary'!$M$57:$M$71</c:f>
+              <c:f>'Rhode Island summary'!$L$57:$L$71</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.33812056503325971</c:v>
+                  <c:v>0.84527697391665213</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50974210327286928</c:v>
+                  <c:v>1.274318415060075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51840491493430552</c:v>
+                  <c:v>1.2959748180832642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54241791304813347</c:v>
+                  <c:v>1.3560055777571873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7387625622859133</c:v>
+                  <c:v>1.8468530094598747</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39000628109354823</c:v>
+                  <c:v>0.97498751387338378</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1985397001162463</c:v>
+                  <c:v>2.996262622279652</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8467681380424943</c:v>
+                  <c:v>4.6167868644626706</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0212001782583693</c:v>
+                  <c:v>5.0528543574093927</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3811473166449033</c:v>
+                  <c:v>3.4527684650943073</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1247820169602178</c:v>
+                  <c:v>2.8118737454448515</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1554831227719773</c:v>
+                  <c:v>2.8886242909607867</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88437683453213278</c:v>
+                  <c:v>2.2108781653720939</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0965445248392507</c:v>
+                  <c:v>2.7412820560909119</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2537038281663766</c:v>
+                  <c:v>3.1341689552540397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2034,6 +2331,147 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2428-4136-9104-8A90B7298A20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rhode Island summary'!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Rhode Island summary'!$K$7:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Rhode Island summary'!$N$7:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A34-4DFA-9C3E-EE9D8E3706BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2103,7 +2541,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2160,8 +2598,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.80383311461067364"/>
           <c:y val="6.5392971711869377E-2"/>
-          <c:w val="0.17950021872265967"/>
-          <c:h val="0.15625109361329836"/>
+          <c:w val="0.17791374613865762"/>
+          <c:h val="0.23437664041994752"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2421,49 +2859,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.29566268665885315</c:v>
+                  <c:v>1.5418167457242424</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48285647661027475</c:v>
+                  <c:v>1.241602777008973</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39935523930916778</c:v>
+                  <c:v>1.3578128358441579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48258095313290528</c:v>
+                  <c:v>1.2419521233259834</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32189988816063853</c:v>
+                  <c:v>1.4897788504687313</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21476656276109796</c:v>
+                  <c:v>1.7374714226395878</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4316559654626011</c:v>
+                  <c:v>4.1311313940555462E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0747527705405528</c:v>
+                  <c:v>0.75187997813315333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39166062523904366</c:v>
+                  <c:v>1.3697207864885972</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63198261993735028</c:v>
+                  <c:v>1.0768723369496818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.304288139132354</c:v>
+                  <c:v>0.63340614439888687</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1090802904243526</c:v>
+                  <c:v>0.73263663861082196</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.58890896799593784</c:v>
+                  <c:v>1.1200775906282034</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0912762585660429</c:v>
+                  <c:v>0.34444367726859165</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.1792725560688253</c:v>
+                  <c:v>0.31921677856983366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2625,6 +3063,147 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-77EE-44D1-A991-FC566E1B8F90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Rhode Island summary'!$N$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Rhode Island summary'!$K$32:$K$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Rhode Island summary'!$N$32:$N$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90600000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1FB1-44CB-ABC9-8EC226AABE00}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2751,8 +3330,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.80383311461067364"/>
           <c:y val="6.5392971711869377E-2"/>
-          <c:w val="0.15322244094488188"/>
-          <c:h val="0.15625109361329836"/>
+          <c:w val="0.17802236258929172"/>
+          <c:h val="0.23437664041994752"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5100,13 +5679,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>358775</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>358775</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -5136,13 +5715,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
@@ -5221,14 +5800,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>69849</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
@@ -5257,14 +5836,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -6756,10 +7335,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368E9887-5155-46A1-B458-1CC08359F4C2}">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79:M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6767,23 +7346,23 @@
     <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -6813,8 +7392,11 @@
       <c r="M6" s="27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -6847,16 +7429,23 @@
       <c r="K7" s="28">
         <v>2008</v>
       </c>
-      <c r="L7" s="35">
-        <f>EXP(B7+I7)</f>
-        <v>2.332488957843172</v>
-      </c>
-      <c r="M7" s="29">
+      <c r="L7" s="29">
+        <f>(B7+I7)</f>
+        <v>0.84693591968449999</v>
+      </c>
+      <c r="M7" s="36">
         <f>L7/AVERAGE($L$7:$L$19)</f>
-        <v>0.58058314736778682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.6565863618516049</v>
+      </c>
+      <c r="N7" s="34">
+        <v>2.58</v>
+      </c>
+      <c r="O7">
+        <f>MAX($N$7:$N$19)</f>
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -6889,16 +7478,19 @@
       <c r="K8" s="28">
         <v>2009</v>
       </c>
-      <c r="L8" s="35">
-        <f>EXP($B$7+$I$7+B8+I8)</f>
-        <v>3.0491358695737927</v>
-      </c>
-      <c r="M8" s="29">
+      <c r="L8" s="29">
+        <f>($B$7+$I$7+B8+I8)</f>
+        <v>1.114858229025</v>
+      </c>
+      <c r="M8" s="36">
         <f>L8/AVERAGE($L$7:$L$19)</f>
-        <v>0.75896475048958967</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.86429290760100541</v>
+      </c>
+      <c r="N8" s="34">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -6928,16 +7520,19 @@
       <c r="K9" s="28">
         <v>2010</v>
       </c>
-      <c r="L9" s="35">
-        <f t="shared" ref="L9:L10" si="2">EXP($B$7+$I$7+B9+I9)</f>
-        <v>2.4832760235625106</v>
-      </c>
-      <c r="M9" s="29">
+      <c r="L9" s="29">
+        <f t="shared" ref="L9:L11" si="2">($B$7+$I$7+B9+I9)</f>
+        <v>0.90957866569700008</v>
+      </c>
+      <c r="M9" s="36">
         <f>L9/AVERAGE($L$7:$L$19)</f>
-        <v>0.6181157705784186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.70515009819196872</v>
+      </c>
+      <c r="N9" s="34">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -6970,16 +7565,19 @@
       <c r="K10" s="28">
         <v>2011</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="29">
         <f t="shared" si="2"/>
-        <v>1.0997840035840882</v>
-      </c>
-      <c r="M10" s="29">
+        <v>9.5113800145000024E-2</v>
+      </c>
+      <c r="M10" s="36">
         <f>L10/AVERAGE($L$7:$L$19)</f>
-        <v>0.27374880214482317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>7.3736893840032444E-2</v>
+      </c>
+      <c r="N10" s="34">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -7012,16 +7610,19 @@
       <c r="K11" s="28">
         <v>2012</v>
       </c>
-      <c r="L11" s="35">
-        <f t="shared" ref="L11" si="3">EXP($B$7+$I$7+B11+I11)</f>
-        <v>7.2189305624475884</v>
-      </c>
-      <c r="M11" s="29">
+      <c r="L11" s="29">
+        <f t="shared" si="2"/>
+        <v>1.9767068203890001</v>
+      </c>
+      <c r="M11" s="36">
         <f>L11/AVERAGE($L$7:$L$19)</f>
-        <v>1.796874284219925</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.5324403056726563</v>
+      </c>
+      <c r="N11" s="34">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -7054,10 +7655,11 @@
       <c r="K12" s="28">
         <v>2013</v>
       </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="29"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L12" s="29"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="34"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -7090,16 +7692,19 @@
       <c r="K13" s="28">
         <v>2014</v>
       </c>
-      <c r="L13" s="35">
-        <f>EXP($B$7+$I$7+B12+I12)</f>
-        <v>4.9808096911708821</v>
-      </c>
-      <c r="M13" s="29">
-        <f>L13/AVERAGE($L$7:$L$19)</f>
-        <v>1.2397804316355514</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L13" s="29">
+        <f>($B$7+$I$7+B12+I12)</f>
+        <v>1.605592466409</v>
+      </c>
+      <c r="M13" s="36">
+        <f t="shared" ref="M13:M19" si="3">L13/AVERAGE($L$7:$L$19)</f>
+        <v>1.244734213809876</v>
+      </c>
+      <c r="N13" s="34">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -7132,16 +7737,19 @@
       <c r="K14" s="28">
         <v>2015</v>
       </c>
-      <c r="L14" s="35">
-        <f>EXP($B$7+$I$7+B13+I13)</f>
-        <v>4.164407860422938</v>
-      </c>
-      <c r="M14" s="29">
-        <f>L14/AVERAGE($L$7:$L$19)</f>
-        <v>1.0365686895955128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L14" s="29">
+        <f t="shared" ref="L14:L19" si="4">($B$7+$I$7+B13+I13)</f>
+        <v>1.4265740951449999</v>
+      </c>
+      <c r="M14" s="36">
+        <f t="shared" si="3"/>
+        <v>1.1059503715368786</v>
+      </c>
+      <c r="N14" s="34">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -7174,16 +7782,19 @@
       <c r="K15" s="28">
         <v>2016</v>
       </c>
-      <c r="L15" s="35">
-        <f>EXP($B$7+$I$7+B14+I14)</f>
-        <v>3.8455739546061594</v>
-      </c>
-      <c r="M15" s="29">
-        <f>L15/AVERAGE($L$7:$L$19)</f>
-        <v>0.95720728816026723</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L15" s="29">
+        <f t="shared" si="4"/>
+        <v>1.346922864797</v>
+      </c>
+      <c r="M15" s="36">
+        <f t="shared" si="3"/>
+        <v>1.044200821971571</v>
+      </c>
+      <c r="N15" s="34">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -7216,16 +7827,19 @@
       <c r="K16" s="28">
         <v>2017</v>
       </c>
-      <c r="L16" s="35">
-        <f>EXP($B$7+$I$7+B15+I15)</f>
-        <v>5.5180754003399874</v>
-      </c>
-      <c r="M16" s="29">
-        <f>L16/AVERAGE($L$7:$L$19)</f>
-        <v>1.3735120042345579</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L16" s="29">
+        <f t="shared" si="4"/>
+        <v>1.7080291401345</v>
+      </c>
+      <c r="M16" s="36">
+        <f t="shared" si="3"/>
+        <v>1.3241481592553133</v>
+      </c>
+      <c r="N16" s="34">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -7258,16 +7872,19 @@
       <c r="K17" s="28">
         <v>2018</v>
       </c>
-      <c r="L17" s="35">
-        <f>EXP($B$7+$I$7+B16+I16)</f>
-        <v>3.6928332460787581</v>
-      </c>
-      <c r="M17" s="29">
-        <f>L17/AVERAGE($L$7:$L$19)</f>
-        <v>0.91918838093679012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L17" s="29">
+        <f t="shared" si="4"/>
+        <v>1.306393980797</v>
+      </c>
+      <c r="M17" s="36">
+        <f t="shared" si="3"/>
+        <v>1.0127808386210257</v>
+      </c>
+      <c r="N17" s="34">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -7300,16 +7917,19 @@
       <c r="K18" s="28">
         <v>2019</v>
       </c>
-      <c r="L18" s="35">
-        <f>EXP($B$7+$I$7+B17+I17)</f>
-        <v>3.9242587141337717</v>
-      </c>
-      <c r="M18" s="29">
-        <f>L18/AVERAGE($L$7:$L$19)</f>
-        <v>0.97679282368137055</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L18" s="29">
+        <f t="shared" si="4"/>
+        <v>1.3671774707565001</v>
+      </c>
+      <c r="M18" s="36">
+        <f t="shared" si="3"/>
+        <v>1.0599031882646905</v>
+      </c>
+      <c r="N18" s="34">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -7328,19 +7948,22 @@
       <c r="F19" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="30">
         <v>2020</v>
       </c>
-      <c r="L19" s="32">
-        <f>EXP($B$7+$I$7+B18+I18)</f>
-        <v>5.9003464158240995</v>
-      </c>
-      <c r="M19" s="33">
-        <f>L19/AVERAGE($L$7:$L$19)</f>
-        <v>1.4686636269554094</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L19" s="31">
+        <f t="shared" si="4"/>
+        <v>1.7750110637344998</v>
+      </c>
+      <c r="M19" s="37">
+        <f t="shared" si="3"/>
+        <v>1.376075839383379</v>
+      </c>
+      <c r="N19" s="35">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -7357,7 +7980,7 @@
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -7377,7 +8000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -7397,7 +8020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -7417,23 +8040,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="34" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="32" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="14"/>
     </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>31</v>
       </c>
@@ -7463,8 +8086,11 @@
       <c r="M31" s="27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N31" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -7487,26 +8113,29 @@
         <v>2008</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32:H43" si="4">C32^2</f>
+        <f t="shared" ref="H32:H43" si="5">C32^2</f>
         <v>4.9318315289999994E-3</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32:I43" si="5">H32/2</f>
+        <f t="shared" ref="I32:I43" si="6">H32/2</f>
         <v>2.4659157644999997E-3</v>
       </c>
       <c r="K32" s="28">
         <v>2008</v>
       </c>
-      <c r="L32" s="35">
-        <f>EXP(B32+I32)</f>
-        <v>0.29322968059422977</v>
-      </c>
-      <c r="M32" s="29">
+      <c r="L32" s="29">
+        <f>(B32+I32)</f>
+        <v>-1.2267990842355001</v>
+      </c>
+      <c r="M32" s="36">
         <f>L32/AVERAGE($L$32:$L$44)</f>
-        <v>0.5322608365285566</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.3609132204114487</v>
+      </c>
+      <c r="N32" s="34">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -7526,26 +8155,29 @@
         <v>2009</v>
       </c>
       <c r="H33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8828593689999988E-3</v>
       </c>
       <c r="I33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4414296844999994E-3</v>
       </c>
       <c r="K33" s="28">
         <v>2009</v>
       </c>
-      <c r="L33" s="35">
-        <f>EXP($B$32+$I$32+B33+I33)</f>
-        <v>0.29544704747637934</v>
-      </c>
-      <c r="M33" s="29">
+      <c r="L33" s="29">
+        <f>($B$32+$I$32+B33+I33)</f>
+        <v>-1.2192656545510001</v>
+      </c>
+      <c r="M33" s="36">
         <f>L33/AVERAGE($L$32:$L$44)</f>
-        <v>0.53628572769643545</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.3525562333673435</v>
+      </c>
+      <c r="N33" s="34">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -7568,26 +8200,29 @@
         <v>2010</v>
       </c>
       <c r="H34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4717007210000005E-3</v>
       </c>
       <c r="I34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.7358503605000003E-3</v>
       </c>
       <c r="K34" s="28">
         <v>2010</v>
       </c>
-      <c r="L34" s="35">
-        <f t="shared" ref="L34:L43" si="6">EXP($B$32+$I$32+B34+I34)</f>
-        <v>0.24674836326173591</v>
-      </c>
-      <c r="M34" s="29">
+      <c r="L34" s="29">
+        <f t="shared" ref="L34:L36" si="7">($B$32+$I$32+B34+I34)</f>
+        <v>-1.3993862338750001</v>
+      </c>
+      <c r="M34" s="36">
         <f>L34/AVERAGE($L$32:$L$44)</f>
-        <v>0.44788948368253323</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.552367662003155</v>
+      </c>
+      <c r="N34" s="34">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -7610,26 +8245,29 @@
         <v>2011</v>
       </c>
       <c r="H35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4145058488999999E-2</v>
       </c>
       <c r="I35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.0725292444999994E-3</v>
       </c>
       <c r="K35" s="28">
         <v>2011</v>
       </c>
-      <c r="L35" s="35">
-        <f t="shared" si="6"/>
-        <v>0.13042648360359665</v>
-      </c>
-      <c r="M35" s="29">
+      <c r="L35" s="29">
+        <f t="shared" si="7"/>
+        <v>-2.0369455549910001</v>
+      </c>
+      <c r="M35" s="36">
         <f>L35/AVERAGE($L$32:$L$44)</f>
-        <v>0.23674584758148287</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+        <v>2.2596252073118155</v>
+      </c>
+      <c r="N35" s="34">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -7652,26 +8290,29 @@
         <v>2012</v>
       </c>
       <c r="H36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0231111839999995E-3</v>
       </c>
       <c r="I36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.0115555919999997E-3</v>
       </c>
       <c r="K36" s="28">
         <v>2012</v>
       </c>
-      <c r="L36" s="35">
-        <f t="shared" si="6"/>
-        <v>2.0828985792779302</v>
-      </c>
-      <c r="M36" s="29">
+      <c r="L36" s="29">
+        <f t="shared" si="7"/>
+        <v>0.7337604713564998</v>
+      </c>
+      <c r="M36" s="36">
         <f>L36/AVERAGE($L$32:$L$44)</f>
-        <v>3.7808087433848581</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+        <v>-0.81397544138752009</v>
+      </c>
+      <c r="N36" s="34">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -7694,20 +8335,20 @@
         <v>2014</v>
       </c>
       <c r="H37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.1787896360000006E-3</v>
       </c>
       <c r="I37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5893948180000003E-3</v>
       </c>
-      <c r="K37" s="37">
+      <c r="K37" s="28">
         <v>2013</v>
       </c>
-      <c r="L37" s="36"/>
-      <c r="M37" s="29"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M37" s="36"/>
+      <c r="N37" s="34"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -7727,26 +8368,29 @@
         <v>2015</v>
       </c>
       <c r="H38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.7529786010000004E-3</v>
       </c>
       <c r="I38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.8764893005000002E-3</v>
       </c>
       <c r="K38" s="28">
         <v>2014</v>
       </c>
-      <c r="L38" s="35">
-        <f>EXP($B$32+$I$32+B37+I37)</f>
-        <v>0.24759704088922149</v>
-      </c>
-      <c r="M38" s="29">
-        <f>L38/AVERAGE($L$32:$L$44)</f>
-        <v>0.44942997529659201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L38" s="29">
+        <f>($B$32+$I$32+B37+I37)</f>
+        <v>-1.3959526894175001</v>
+      </c>
+      <c r="M38" s="36">
+        <f t="shared" ref="M38:M44" si="8">L38/AVERAGE($L$32:$L$44)</f>
+        <v>1.5485587611773168</v>
+      </c>
+      <c r="N38" s="34">
+        <v>0.51700000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -7769,26 +8413,29 @@
         <v>2016</v>
       </c>
       <c r="H39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6841704809999999E-3</v>
       </c>
       <c r="I39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3420852404999999E-3</v>
       </c>
       <c r="K39" s="28">
         <v>2015</v>
       </c>
-      <c r="L39" s="35">
-        <f>EXP($B$32+$I$32+B38+I38)</f>
-        <v>0.3186832567780461</v>
-      </c>
-      <c r="M39" s="29">
-        <f>L39/AVERAGE($L$32:$L$44)</f>
-        <v>0.5784633277797373</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L39" s="29">
+        <f t="shared" ref="L39:L44" si="9">($B$32+$I$32+B38+I38)</f>
+        <v>-1.1435575949350001</v>
+      </c>
+      <c r="M39" s="36">
+        <f t="shared" si="8"/>
+        <v>1.2685717402689332</v>
+      </c>
+      <c r="N39" s="34">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -7811,26 +8458,29 @@
         <v>2017</v>
       </c>
       <c r="H40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.1119560409999994E-3</v>
       </c>
       <c r="I40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0559780204999997E-3</v>
       </c>
       <c r="K40" s="28">
         <v>2016</v>
       </c>
-      <c r="L40" s="35">
-        <f>EXP($B$32+$I$32+B39+I39)</f>
-        <v>1.0069832711184112</v>
-      </c>
-      <c r="M40" s="29">
-        <f>L40/AVERAGE($L$32:$L$44)</f>
-        <v>1.8278427926176819</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L40" s="29">
+        <f t="shared" si="9"/>
+        <v>6.9590010049999625E-3</v>
+      </c>
+      <c r="M40" s="36">
+        <f t="shared" si="8"/>
+        <v>-7.7197616058400989E-3</v>
+      </c>
+      <c r="N40" s="34">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -7853,26 +8503,29 @@
         <v>2018</v>
       </c>
       <c r="H41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.7741252410000001E-3</v>
       </c>
       <c r="I41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.8870626205000001E-3</v>
       </c>
       <c r="K41" s="28">
         <v>2017</v>
       </c>
-      <c r="L41" s="35">
-        <f>EXP($B$32+$I$32+B40+I40)</f>
-        <v>0.60372824595138941</v>
-      </c>
-      <c r="M41" s="29">
-        <f>L41/AVERAGE($L$32:$L$44)</f>
-        <v>1.0958675826226305</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L41" s="29">
+        <f t="shared" si="9"/>
+        <v>-0.50463110621500018</v>
+      </c>
+      <c r="M41" s="36">
+        <f t="shared" si="8"/>
+        <v>0.55979756808085079</v>
+      </c>
+      <c r="N41" s="34">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -7895,26 +8548,29 @@
         <v>2019</v>
       </c>
       <c r="H42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.8041542250000001E-3</v>
       </c>
       <c r="I42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9020771125000001E-3</v>
       </c>
       <c r="K42" s="28">
         <v>2018</v>
       </c>
-      <c r="L42" s="35">
-        <f>EXP($B$32+$I$32+B41+I41)</f>
-        <v>0.23017692615693536</v>
-      </c>
-      <c r="M42" s="29">
-        <f>L42/AVERAGE($L$32:$L$44)</f>
-        <v>0.41780955808289028</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L42" s="29">
+        <f t="shared" si="9"/>
+        <v>-1.468907021615</v>
+      </c>
+      <c r="M42" s="36">
+        <f t="shared" si="8"/>
+        <v>1.6294884883426555</v>
+      </c>
+      <c r="N42" s="34">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -7937,26 +8593,29 @@
         <v>2020</v>
       </c>
       <c r="H43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.0030158240000006E-3</v>
       </c>
       <c r="I43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.5015079120000003E-3</v>
       </c>
       <c r="K43" s="28">
         <v>2019</v>
       </c>
-      <c r="L43" s="35">
-        <f>EXP($B$32+$I$32+B42+I42)</f>
-        <v>0.43297772006315288</v>
-      </c>
-      <c r="M43" s="29">
-        <f>L43/AVERAGE($L$32:$L$44)</f>
-        <v>0.78592686460667893</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L43" s="29">
+        <f t="shared" si="9"/>
+        <v>-0.83706900712300014</v>
+      </c>
+      <c r="M43" s="36">
+        <f t="shared" si="8"/>
+        <v>0.92857770504472914</v>
+      </c>
+      <c r="N43" s="34">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -7972,19 +8631,22 @@
       <c r="E44" s="14">
         <v>0.95652999999999999</v>
       </c>
-      <c r="K44" s="31">
+      <c r="K44" s="30">
         <v>2020</v>
       </c>
-      <c r="L44" s="32">
-        <f>EXP($B$32+$I$32+B43+I43)</f>
-        <v>0.72206538999985292</v>
-      </c>
-      <c r="M44" s="33">
-        <f>L44/AVERAGE($L$32:$L$44)</f>
-        <v>1.3106692601199219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L44" s="31">
+        <f t="shared" si="9"/>
+        <v>-0.32563957632350016</v>
+      </c>
+      <c r="M44" s="37">
+        <f t="shared" si="8"/>
+        <v>0.36123861698511228</v>
+      </c>
+      <c r="N44" s="35">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -8004,7 +8666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -8024,7 +8686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -8044,7 +8706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -8064,23 +8726,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" s="34" t="s">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" s="32" t="s">
         <v>19</v>
       </c>
       <c r="E51" s="14"/>
     </row>
-    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>31</v>
       </c>
@@ -8110,8 +8772,9 @@
       <c r="M55" s="27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N55" s="24"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -8138,22 +8801,22 @@
         <v>3.6072036000000004E-3</v>
       </c>
       <c r="I56">
-        <f t="shared" ref="I56:I67" si="7">H56/2</f>
+        <f t="shared" ref="I56:I67" si="10">H56/2</f>
         <v>1.8036018000000002E-3</v>
       </c>
       <c r="K56" s="28">
         <v>2008</v>
       </c>
-      <c r="L56" s="35">
+      <c r="L56" s="29">
         <f>EXP(B56+I56)</f>
         <v>2.2498726211690334</v>
       </c>
-      <c r="M56" s="29">
+      <c r="M56" s="36">
         <f>L56/AVERAGE($L$56:$L$68)</f>
         <v>0.53824065273791077</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -8176,26 +8839,26 @@
         <v>2009</v>
       </c>
       <c r="H57">
-        <f t="shared" ref="H57:H66" si="8">C57^2</f>
+        <f t="shared" ref="H57:H66" si="11">C57^2</f>
         <v>5.1696100000000007E-3</v>
       </c>
       <c r="I57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.5848050000000003E-3</v>
       </c>
       <c r="K57" s="28">
         <v>2009</v>
       </c>
-      <c r="L57" s="35">
+      <c r="L57" s="29">
         <f>EXP($B$56+$I$56+B57+I57)</f>
         <v>3.1748754613382846</v>
       </c>
-      <c r="M57" s="29">
+      <c r="M57" s="36">
         <f>L57/AVERAGE($L$56:$L$68)</f>
         <v>0.75953057279499558</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>41</v>
       </c>
@@ -8218,26 +8881,26 @@
         <v>2010</v>
       </c>
       <c r="H58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.2316289000000011E-3</v>
       </c>
       <c r="I58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.6158144500000005E-3</v>
       </c>
       <c r="K58" s="28">
         <v>2010</v>
       </c>
-      <c r="L58" s="35">
-        <f t="shared" ref="L58:L67" si="9">EXP($B$56+$I$56+B58+I58)</f>
+      <c r="L58" s="29">
+        <f t="shared" ref="L58:L60" si="12">EXP($B$56+$I$56+B58+I58)</f>
         <v>2.7505184364339637</v>
       </c>
-      <c r="M58" s="29">
+      <c r="M58" s="36">
         <f>L58/AVERAGE($L$56:$L$68)</f>
         <v>0.65801095789353514</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -8260,26 +8923,26 @@
         <v>2011</v>
       </c>
       <c r="H59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.0928015999999995E-3</v>
       </c>
       <c r="I59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4.0464007999999997E-3</v>
       </c>
       <c r="K59" s="28">
         <v>2011</v>
       </c>
-      <c r="L59" s="35">
-        <f t="shared" si="9"/>
+      <c r="L59" s="29">
+        <f t="shared" si="12"/>
         <v>1.1737573372042136</v>
       </c>
-      <c r="M59" s="29">
+      <c r="M59" s="36">
         <f>L59/AVERAGE($L$56:$L$68)</f>
         <v>0.28079985924022827</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -8302,26 +8965,26 @@
         <v>2012</v>
       </c>
       <c r="H60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.3890281000000002E-3</v>
       </c>
       <c r="I60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.6945140500000001E-3</v>
       </c>
       <c r="K60" s="28">
         <v>2012</v>
       </c>
-      <c r="L60" s="35">
-        <f t="shared" si="9"/>
+      <c r="L60" s="29">
+        <f t="shared" si="12"/>
         <v>6.7374270980496984</v>
       </c>
-      <c r="M60" s="29">
+      <c r="M60" s="36">
         <f>L60/AVERAGE($L$56:$L$68)</f>
         <v>1.6118055417484494</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>45</v>
       </c>
@@ -8344,20 +9007,19 @@
         <v>2014</v>
       </c>
       <c r="H61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.241E-3</v>
       </c>
       <c r="I61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.1205E-3</v>
       </c>
-      <c r="K61" s="37">
+      <c r="K61" s="28">
         <v>2013</v>
       </c>
-      <c r="L61" s="36"/>
-      <c r="M61" s="29"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M61" s="36"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -8380,26 +9042,26 @@
         <v>2015</v>
       </c>
       <c r="H62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.9459520999999996E-3</v>
       </c>
       <c r="I62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.9729760499999998E-3</v>
       </c>
       <c r="K62" s="28">
         <v>2014</v>
       </c>
-      <c r="L62" s="35">
-        <f>EXP($B$56+$I$56+B61+I61)</f>
+      <c r="L62" s="29">
+        <f t="shared" ref="L62:L68" si="13">EXP($B$56+$I$56+B61+I61)</f>
         <v>5.0202217287403705</v>
       </c>
-      <c r="M62" s="29">
-        <f>L62/AVERAGE($L$56:$L$68)</f>
+      <c r="M62" s="36">
+        <f t="shared" ref="M62:M68" si="14">L62/AVERAGE($L$56:$L$68)</f>
         <v>1.200995734043937</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -8422,26 +9084,26 @@
         <v>2016</v>
       </c>
       <c r="H63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.5935440999999994E-3</v>
       </c>
       <c r="I63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.7967720499999997E-3</v>
       </c>
       <c r="K63" s="28">
         <v>2015</v>
       </c>
-      <c r="L63" s="35">
-        <f>EXP($B$56+$I$56+B62+I62)</f>
+      <c r="L63" s="29">
+        <f t="shared" si="13"/>
         <v>4.717111197735985</v>
       </c>
-      <c r="M63" s="29">
-        <f>L63/AVERAGE($L$56:$L$68)</f>
+      <c r="M63" s="36">
+        <f t="shared" si="14"/>
         <v>1.1284821132618128</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -8464,26 +9126,26 @@
         <v>2017</v>
       </c>
       <c r="H64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.2552280999999986E-3</v>
       </c>
       <c r="I64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.1276140499999993E-3</v>
       </c>
       <c r="K64" s="28">
         <v>2016</v>
       </c>
-      <c r="L64" s="35">
-        <f>EXP($B$56+$I$56+B63+I63)</f>
+      <c r="L64" s="29">
+        <f t="shared" si="13"/>
         <v>3.8823489651823988</v>
       </c>
-      <c r="M64" s="29">
-        <f>L64/AVERAGE($L$56:$L$68)</f>
+      <c r="M64" s="36">
+        <f t="shared" si="14"/>
         <v>0.92878059918358902</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -8506,26 +9168,26 @@
         <v>2018</v>
       </c>
       <c r="H65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.9126081000000002E-3</v>
       </c>
       <c r="I65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.4563040500000001E-3</v>
       </c>
       <c r="K65" s="28">
         <v>2017</v>
       </c>
-      <c r="L65" s="35">
-        <f>EXP($B$56+$I$56+B64+I64)</f>
+      <c r="L65" s="29">
+        <f t="shared" si="13"/>
         <v>5.8123863373048987</v>
       </c>
-      <c r="M65" s="29">
-        <f>L65/AVERAGE($L$56:$L$68)</f>
+      <c r="M65" s="36">
+        <f t="shared" si="14"/>
         <v>1.3905065498909688</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -8548,26 +9210,26 @@
         <v>2019</v>
       </c>
       <c r="H66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.0481025000000002E-3</v>
       </c>
       <c r="I66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.5240512500000001E-3</v>
       </c>
       <c r="K66" s="28">
         <v>2018</v>
       </c>
-      <c r="L66" s="35">
-        <f>EXP($B$56+$I$56+B65+I65)</f>
+      <c r="L66" s="29">
+        <f t="shared" si="13"/>
         <v>4.2476670629228757</v>
       </c>
-      <c r="M66" s="29">
-        <f>L66/AVERAGE($L$56:$L$68)</f>
+      <c r="M66" s="36">
+        <f t="shared" si="14"/>
         <v>1.0161762364008808</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -8594,22 +9256,22 @@
         <v>5.0922496000000012E-3</v>
       </c>
       <c r="I67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2.5461248000000006E-3</v>
       </c>
       <c r="K67" s="28">
         <v>2019</v>
       </c>
-      <c r="L67" s="35">
-        <f>EXP($B$56+$I$56+B66+I66)</f>
+      <c r="L67" s="29">
+        <f t="shared" si="13"/>
         <v>4.3089646422848977</v>
       </c>
-      <c r="M67" s="29">
-        <f>L67/AVERAGE($L$56:$L$68)</f>
+      <c r="M67" s="36">
+        <f t="shared" si="14"/>
         <v>1.0308405550901432</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -8628,19 +9290,19 @@
       <c r="F68" t="s">
         <v>21</v>
       </c>
-      <c r="K68" s="31">
+      <c r="K68" s="30">
         <v>2020</v>
       </c>
-      <c r="L68" s="32">
-        <f>EXP($B$56+$I$56+B67+I67)</f>
+      <c r="L68" s="31">
+        <f t="shared" si="13"/>
         <v>6.0854442221906488</v>
       </c>
-      <c r="M68" s="33">
-        <f>L68/AVERAGE($L$56:$L$68)</f>
+      <c r="M68" s="37">
+        <f t="shared" si="14"/>
         <v>1.4558306277135495</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -8657,7 +9319,7 @@
         <v>0.14474999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>54</v>
       </c>
@@ -8677,7 +9339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -8697,7 +9359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>57</v>
       </c>
@@ -8717,22 +9379,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A76" s="34" t="s">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A76" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>31</v>
       </c>
@@ -8762,8 +9424,9 @@
       <c r="M79" s="27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N79" s="24"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -8790,19 +9453,19 @@
         <v>8.7497315999999995E-3</v>
       </c>
       <c r="I80">
-        <f t="shared" ref="I80:I91" si="10">H80/2</f>
+        <f t="shared" ref="I80:I84" si="15">H80/2</f>
         <v>4.3748657999999998E-3</v>
       </c>
       <c r="K80" s="28">
         <v>2008</v>
       </c>
-      <c r="L80" s="35">
+      <c r="L80" s="38">
         <f>EXP(B80+I80)</f>
         <v>0.3203294971980486</v>
       </c>
-      <c r="M80" s="29">
+      <c r="M80" s="36">
         <f>L80/AVERAGE($L$80:$L$92)</f>
-        <v>0.16078992662834879</v>
+        <v>0.48807561114279352</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
@@ -8828,23 +9491,23 @@
         <v>2009</v>
       </c>
       <c r="H81">
-        <f t="shared" ref="H81:H91" si="11">C81^2</f>
+        <f t="shared" ref="H81:H84" si="16">C81^2</f>
         <v>1.21E-2</v>
       </c>
       <c r="I81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6.0499999999999998E-3</v>
       </c>
       <c r="K81" s="28">
         <v>2009</v>
       </c>
-      <c r="L81" s="35">
-        <f t="shared" ref="L81:L90" si="12">EXP(B81+I81)</f>
-        <v>1.2195476362176154</v>
-      </c>
-      <c r="M81" s="29">
+      <c r="L81" s="38">
+        <f>EXP($B$80+$I$80+B81+I81)</f>
+        <v>0.39065708111865749</v>
+      </c>
+      <c r="M81" s="36">
         <f>L81/AVERAGE($L$56:$L$68)</f>
-        <v>0.29175434626235636</v>
+        <v>9.3457523043565999E-2</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
@@ -8867,23 +9530,23 @@
         <v>2010</v>
       </c>
       <c r="H82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>1.2452328099999998E-2</v>
       </c>
       <c r="I82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6.2261640499999991E-3</v>
       </c>
       <c r="K82" s="28">
         <v>2010</v>
       </c>
-      <c r="L82" s="35">
-        <f t="shared" si="12"/>
-        <v>1.0770395975760965</v>
-      </c>
-      <c r="M82" s="29">
+      <c r="L82" s="38">
+        <f t="shared" ref="L82:L83" si="17">EXP($B$80+$I$80+B82+I82)</f>
+        <v>0.34500755275393963</v>
+      </c>
+      <c r="M82" s="36">
         <f>L82/AVERAGE($L$56:$L$68)</f>
-        <v>0.257661918532401</v>
+        <v>8.2536712810568583E-2</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
@@ -8909,23 +9572,23 @@
         <v>2011</v>
       </c>
       <c r="H83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>2.0629576900000002E-2</v>
       </c>
       <c r="I83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.0314788450000001E-2</v>
       </c>
       <c r="K83" s="28">
         <v>2011</v>
       </c>
-      <c r="L83" s="35">
-        <f t="shared" si="12"/>
-        <v>0.51151149969296095</v>
-      </c>
-      <c r="M83" s="29">
+      <c r="L83" s="38">
+        <f t="shared" si="17"/>
+        <v>0.16385222150766598</v>
+      </c>
+      <c r="M83" s="36">
         <f>L83/AVERAGE($L$56:$L$68)</f>
-        <v>0.12236972035093821</v>
+        <v>3.9198630992281859E-2</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
@@ -8951,23 +9614,23 @@
         <v>2012</v>
       </c>
       <c r="H84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>9.6353855999999991E-3</v>
       </c>
       <c r="I84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>4.8176927999999996E-3</v>
       </c>
       <c r="K84" s="28">
         <v>2012</v>
       </c>
-      <c r="L84" s="35">
-        <f t="shared" si="12"/>
-        <v>6.8494454500505215</v>
-      </c>
-      <c r="M84" s="29">
+      <c r="L84" s="38">
+        <f>EXP($B$80+$I$80+B84+I84)</f>
+        <v>2.194079417100145</v>
+      </c>
+      <c r="M84" s="36">
         <f>L84/AVERAGE($L$56:$L$68)</f>
-        <v>1.6386038726104961</v>
+        <v>0.52489315462009545</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
@@ -8990,18 +9653,18 @@
         <v>2014</v>
       </c>
       <c r="H85">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="H85:H91" si="18">C85^2</f>
         <v>1.59820164E-2</v>
       </c>
       <c r="I85">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I85:I91" si="19">H85/2</f>
         <v>7.9910082E-3</v>
       </c>
-      <c r="K85" s="37">
+      <c r="K85" s="28">
         <v>2013</v>
       </c>
-      <c r="L85" s="36"/>
-      <c r="M85" s="29"/>
+      <c r="L85" s="38"/>
+      <c r="M85" s="36"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
@@ -9026,23 +9689,23 @@
         <v>2015</v>
       </c>
       <c r="H86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1.3572250000000001E-2</v>
       </c>
       <c r="I86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>6.7861250000000005E-3</v>
       </c>
       <c r="K86" s="28">
         <v>2014</v>
       </c>
-      <c r="L86" s="35">
-        <f>EXP(B85+I85)</f>
-        <v>0.92630753170381219</v>
-      </c>
-      <c r="M86" s="29">
-        <f>L86/AVERAGE($L$56:$L$68)</f>
-        <v>0.22160204351535365</v>
+      <c r="L86" s="38">
+        <f>EXP($B$80+$I$80+B85+I85)</f>
+        <v>0.29672362588144763</v>
+      </c>
+      <c r="M86" s="36">
+        <f t="shared" ref="M86:M92" si="20">L86/AVERAGE($L$56:$L$68)</f>
+        <v>7.0985671177333315E-2</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
@@ -9068,23 +9731,23 @@
         <v>2016</v>
       </c>
       <c r="H87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1.0424409999999999E-2</v>
       </c>
       <c r="I87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>5.2122049999999993E-3</v>
       </c>
       <c r="K87" s="28">
         <v>2015</v>
       </c>
-      <c r="L87" s="35">
-        <f>EXP(B86+I86)</f>
-        <v>1.4003134788211249</v>
-      </c>
-      <c r="M87" s="29">
-        <f>L87/AVERAGE($L$56:$L$68)</f>
-        <v>0.33499925008498999</v>
+      <c r="L87" s="38">
+        <f t="shared" ref="L87:L92" si="21">EXP($B$80+$I$80+B86+I86)</f>
+        <v>0.44856171259042121</v>
+      </c>
+      <c r="M87" s="36">
+        <f t="shared" si="20"/>
+        <v>0.10731014134144817</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
@@ -9110,23 +9773,23 @@
         <v>2017</v>
       </c>
       <c r="H88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1.2638256400000001E-2</v>
       </c>
       <c r="I88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>6.3191282000000003E-3</v>
       </c>
       <c r="K88" s="28">
         <v>2016</v>
       </c>
-      <c r="L88" s="35">
-        <f>EXP(B87+I87)</f>
-        <v>3.5866987277882663</v>
-      </c>
-      <c r="M88" s="29">
-        <f>L88/AVERAGE($L$56:$L$68)</f>
-        <v>0.85805171646379674</v>
+      <c r="L88" s="38">
+        <f t="shared" si="21"/>
+        <v>1.148925400073296</v>
+      </c>
+      <c r="M88" s="36">
+        <f t="shared" si="20"/>
+        <v>0.27485927490477063</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
@@ -9149,23 +9812,23 @@
         <v>2018</v>
       </c>
       <c r="H89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1.2566410000000002E-2</v>
       </c>
       <c r="I89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>6.2832050000000009E-3</v>
       </c>
       <c r="K89" s="28">
         <v>2017</v>
       </c>
-      <c r="L89" s="35">
-        <f>EXP(B88+I88)</f>
-        <v>2.424678960493265</v>
-      </c>
-      <c r="M89" s="29">
-        <f>L89/AVERAGE($L$56:$L$68)</f>
-        <v>0.58005985498755241</v>
+      <c r="L89" s="38">
+        <f t="shared" si="21"/>
+        <v>0.77669619228149478</v>
+      </c>
+      <c r="M89" s="36">
+        <f t="shared" si="20"/>
+        <v>0.18581028169293567</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.35">
@@ -9191,23 +9854,23 @@
         <v>2019</v>
       </c>
       <c r="H90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1.11218116E-2</v>
       </c>
       <c r="I90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>5.5609057999999999E-3</v>
       </c>
       <c r="K90" s="28">
         <v>2018</v>
       </c>
-      <c r="L90" s="35">
-        <f>EXP(B89+I89)</f>
-        <v>0.97478651103619129</v>
-      </c>
-      <c r="M90" s="29">
-        <f>L90/AVERAGE($L$56:$L$68)</f>
-        <v>0.23319974786288658</v>
+      <c r="L90" s="38">
+        <f t="shared" si="21"/>
+        <v>0.31225287295566323</v>
+      </c>
+      <c r="M90" s="36">
+        <f t="shared" si="20"/>
+        <v>7.4700757979630161E-2</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
@@ -9233,23 +9896,23 @@
         <v>2020</v>
       </c>
       <c r="H91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1.04530176E-2</v>
       </c>
       <c r="I91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>5.2265087999999998E-3</v>
       </c>
       <c r="K91" s="28">
         <v>2019</v>
       </c>
-      <c r="L91" s="35">
-        <f>EXP(B90+I90)</f>
-        <v>1.7301548372408939</v>
-      </c>
-      <c r="M91" s="29">
-        <f>L91/AVERAGE($L$56:$L$68)</f>
-        <v>0.41390772978530699</v>
+      <c r="L91" s="38">
+        <f t="shared" si="21"/>
+        <v>0.55421962908814715</v>
+      </c>
+      <c r="M91" s="36">
+        <f t="shared" si="20"/>
+        <v>0.13258685496851313</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9268,16 +9931,16 @@
       <c r="E92">
         <v>0.27187</v>
       </c>
-      <c r="K92" s="31">
+      <c r="K92" s="30">
         <v>2020</v>
       </c>
-      <c r="L92" s="32">
-        <f>EXP(B91+I91)</f>
-        <v>2.8858702727375971</v>
-      </c>
-      <c r="M92" s="33">
-        <f>L92/AVERAGE($L$56:$L$68)</f>
-        <v>0.6903913958062774</v>
+      <c r="L92" s="31">
+        <f t="shared" si="21"/>
+        <v>0.92442937344482978</v>
+      </c>
+      <c r="M92" s="37">
+        <f t="shared" si="20"/>
+        <v>0.22115272868848379</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
@@ -9373,10 +10036,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2DBA19-5AF2-41C9-920C-E4F4CE48DF6B}">
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9384,23 +10047,23 @@
     <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -9430,8 +10093,11 @@
       <c r="M6" s="27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -9464,16 +10130,19 @@
       <c r="K7" s="28">
         <v>2006</v>
       </c>
-      <c r="L7" s="35">
-        <f>EXP(B7+I7)</f>
-        <v>0.85046204808905101</v>
-      </c>
-      <c r="M7" s="29">
+      <c r="L7" s="29">
+        <f>(B7+I7)</f>
+        <v>-0.16197549120000002</v>
+      </c>
+      <c r="M7" s="36">
         <f>L7/AVERAGE($L$7:$L$21)</f>
-        <v>0.36438776132468909</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>-0.22255980611592036</v>
+      </c>
+      <c r="N7" s="34">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -9506,16 +10175,19 @@
       <c r="K8" s="28">
         <v>2007</v>
       </c>
-      <c r="L8" s="35">
-        <f>EXP($B$7+$I$7+B8+I8)</f>
-        <v>1.2809199967920037</v>
-      </c>
-      <c r="M8" s="29">
+      <c r="L8" s="29">
+        <f>($B$7+$I$7+B8+I8)</f>
+        <v>0.24757856724999996</v>
+      </c>
+      <c r="M8" s="36">
         <f t="shared" ref="M8:M20" si="2">L8/AVERAGE($L$7:$L$21)</f>
-        <v>0.5488211627030688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.34018132939372331</v>
+      </c>
+      <c r="N8" s="34">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -9548,16 +10220,19 @@
       <c r="K9" s="28">
         <v>2008</v>
       </c>
-      <c r="L9" s="35">
-        <f t="shared" ref="L9:L20" si="3">EXP($B$7+$I$7+B9+I9)</f>
-        <v>1.3059883641086991</v>
-      </c>
-      <c r="M9" s="29">
+      <c r="L9" s="29">
+        <f t="shared" ref="L9:L21" si="3">($B$7+$I$7+B9+I9)</f>
+        <v>0.26696012125000002</v>
+      </c>
+      <c r="M9" s="36">
         <f t="shared" si="2"/>
-        <v>0.55956191976227054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.36681224045630545</v>
+      </c>
+      <c r="N9" s="34">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -9590,16 +10265,19 @@
       <c r="K10" s="28">
         <v>2009</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="29">
         <f t="shared" si="3"/>
-        <v>1.2514824762571373</v>
-      </c>
-      <c r="M10" s="29">
+        <v>0.2243288296</v>
+      </c>
+      <c r="M10" s="36">
         <f t="shared" si="2"/>
-        <v>0.53620840446094398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.3082354030977455</v>
+      </c>
+      <c r="N10" s="34">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -9632,16 +10310,19 @@
       <c r="K11" s="28">
         <v>2010</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="29">
         <f t="shared" si="3"/>
-        <v>1.5725480626363486</v>
-      </c>
-      <c r="M11" s="29">
+        <v>0.45269727359999995</v>
+      </c>
+      <c r="M11" s="36">
         <f t="shared" si="2"/>
-        <v>0.67377170963369781</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.62202137308055727</v>
+      </c>
+      <c r="N11" s="34">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -9671,16 +10352,19 @@
       <c r="K12" s="28">
         <v>2011</v>
       </c>
-      <c r="L12" s="35">
-        <f>EXP($B$7+$I$7+B12+I12)</f>
-        <v>0.93482246063224628</v>
-      </c>
-      <c r="M12" s="29">
+      <c r="L12" s="29">
+        <f t="shared" si="3"/>
+        <v>-6.7398649400000024E-2</v>
+      </c>
+      <c r="M12" s="36">
         <f t="shared" si="2"/>
-        <v>0.40053270387693263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+        <v>-9.2608025027794416E-2</v>
+      </c>
+      <c r="N12" s="34">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -9713,16 +10397,19 @@
       <c r="K13" s="28">
         <v>2012</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="29">
         <f t="shared" si="3"/>
-        <v>3.2461606814884179</v>
-      </c>
-      <c r="M13" s="29">
+        <v>1.1774729692499999</v>
+      </c>
+      <c r="M13" s="36">
         <f t="shared" si="2"/>
-        <v>1.3908453954948681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.6178877051185445</v>
+      </c>
+      <c r="N13" s="34">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -9755,16 +10442,19 @@
       <c r="K14" s="28">
         <v>2013</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="29">
         <f t="shared" si="3"/>
-        <v>4.2975923986405551</v>
-      </c>
-      <c r="M14" s="29">
+        <v>1.4580549586</v>
+      </c>
+      <c r="M14" s="36">
         <f t="shared" si="2"/>
-        <v>1.8413403358155018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <v>2.0034168533046079</v>
+      </c>
+      <c r="N14" s="34">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -9797,16 +10487,19 @@
       <c r="K15" s="28">
         <v>2014</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="29">
         <f t="shared" si="3"/>
-        <v>4.1422528647095564</v>
-      </c>
-      <c r="M15" s="29">
+        <v>1.4212398100500001</v>
+      </c>
+      <c r="M15" s="36">
         <f t="shared" si="2"/>
-        <v>1.7747837797157637</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.9528315933821687</v>
+      </c>
+      <c r="N15" s="34">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -9839,16 +10532,19 @@
       <c r="K16" s="28">
         <v>2015</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="29">
         <f t="shared" si="3"/>
-        <v>2.7355047681947258</v>
-      </c>
-      <c r="M16" s="29">
+        <v>1.0063159775999999</v>
+      </c>
+      <c r="M16" s="36">
         <f t="shared" si="2"/>
-        <v>1.1720504881025759</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.3827122066848148</v>
+      </c>
+      <c r="N16" s="34">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -9881,16 +10577,19 @@
       <c r="K17" s="28">
         <v>2016</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="29">
         <f t="shared" si="3"/>
-        <v>2.7673872810501194</v>
-      </c>
-      <c r="M17" s="29">
+        <v>1.01790365525</v>
+      </c>
+      <c r="M17" s="36">
         <f t="shared" si="2"/>
-        <v>1.1857108242820524</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.3986340678998146</v>
+      </c>
+      <c r="N17" s="34">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -9923,16 +10622,19 @@
       <c r="K18" s="28">
         <v>2017</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="29">
         <f t="shared" si="3"/>
-        <v>2.6804812648837357</v>
-      </c>
-      <c r="M18" s="29">
+        <v>0.98599635484999992</v>
+      </c>
+      <c r="M18" s="36">
         <f t="shared" si="2"/>
-        <v>1.148475196016604</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.3547923574157381</v>
+      </c>
+      <c r="N18" s="34">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -9965,16 +10667,19 @@
       <c r="K19" s="28">
         <v>2018</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="29">
         <f t="shared" si="3"/>
-        <v>2.1747262897966491</v>
-      </c>
-      <c r="M19" s="29">
+        <v>0.77690281285000007</v>
+      </c>
+      <c r="M19" s="36">
         <f t="shared" si="2"/>
-        <v>0.93178013764815526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.0674907550384336</v>
+      </c>
+      <c r="N19" s="34">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -10007,16 +10712,19 @@
       <c r="K20" s="28">
         <v>2019</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="29">
         <f t="shared" si="3"/>
-        <v>2.6272830549181658</v>
-      </c>
-      <c r="M20" s="29">
+        <v>0.96595025324999995</v>
+      </c>
+      <c r="M20" s="36">
         <f t="shared" si="2"/>
-        <v>1.1256819665251865</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.3272483354626439</v>
+      </c>
+      <c r="N20" s="34">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -10046,19 +10754,22 @@
         <f t="shared" si="4"/>
         <v>1.50975125E-3</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="30">
         <v>2020</v>
       </c>
-      <c r="L21" s="32">
-        <f>EXP($B$7+$I$7+B21+I21)</f>
-        <v>3.1416063955763178</v>
-      </c>
-      <c r="M21" s="33">
+      <c r="L21" s="31">
+        <f t="shared" si="3"/>
+        <v>1.1447342600499999</v>
+      </c>
+      <c r="M21" s="37">
         <f>L21/AVERAGE($L$7:$L$21)</f>
-        <v>1.3460482146376898</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.5729036108086178</v>
+      </c>
+      <c r="N21" s="35">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -10078,7 +10789,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -10098,7 +10809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -10118,7 +10829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -10138,18 +10849,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="34" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="32" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="14"/>
     </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>31</v>
       </c>
@@ -10179,8 +10890,11 @@
       <c r="M31" s="27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N31" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -10213,16 +10927,19 @@
       <c r="K32" s="28">
         <v>2006</v>
       </c>
-      <c r="L32" s="30">
-        <f>EXP(B32+I32)</f>
-        <v>8.0534076823686698E-2</v>
-      </c>
-      <c r="M32" s="29">
+      <c r="L32" s="29">
+        <f>(B32+I32)</f>
+        <v>-2.5190748695499998</v>
+      </c>
+      <c r="M32" s="36">
         <f>L32/AVERAGE($L$32:$L$46)</f>
-        <v>0.29566268665885315</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.5418167457242424</v>
+      </c>
+      <c r="N32" s="34">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -10255,16 +10972,19 @@
       <c r="K33" s="28">
         <v>2007</v>
       </c>
-      <c r="L33" s="30">
-        <f>EXP($B$32+$I$32+B33+I33)</f>
-        <v>0.13152285471522876</v>
-      </c>
-      <c r="M33" s="29">
+      <c r="L33" s="29">
+        <f>($B$32+$I$32+B33+I33)</f>
+        <v>-2.0285746423500002</v>
+      </c>
+      <c r="M33" s="36">
         <f t="shared" ref="M33:M45" si="7">L33/AVERAGE($L$32:$L$46)</f>
-        <v>0.48285647661027475</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.241602777008973</v>
+      </c>
+      <c r="N33" s="34">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -10294,16 +11014,19 @@
       <c r="K34" s="28">
         <v>2008</v>
       </c>
-      <c r="L34" s="30">
-        <f t="shared" ref="L34:L45" si="8">EXP($B$32+$I$32+B34+I34)</f>
-        <v>0.1087783713457752</v>
-      </c>
-      <c r="M34" s="29">
+      <c r="L34" s="29">
+        <f t="shared" ref="L34:L46" si="8">($B$32+$I$32+B34+I34)</f>
+        <v>-2.2184427570999996</v>
+      </c>
+      <c r="M34" s="36">
         <f t="shared" si="7"/>
-        <v>0.39935523930916778</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.3578128358441579</v>
+      </c>
+      <c r="N34" s="34">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -10336,16 +11059,19 @@
       <c r="K35" s="28">
         <v>2009</v>
       </c>
-      <c r="L35" s="30">
+      <c r="L35" s="29">
         <f t="shared" si="8"/>
-        <v>0.13144780625664931</v>
-      </c>
-      <c r="M35" s="29">
+        <v>-2.02914541675</v>
+      </c>
+      <c r="M35" s="36">
         <f>L35/AVERAGE($L$32:$L$46)</f>
-        <v>0.48258095313290528</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.2419521233259834</v>
+      </c>
+      <c r="N35" s="34">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -10375,16 +11101,19 @@
       <c r="K36" s="28">
         <v>2010</v>
       </c>
-      <c r="L36" s="30">
-        <f>EXP($B$32+$I$32+B36+I36)</f>
-        <v>8.7680696592522728E-2</v>
-      </c>
-      <c r="M36" s="29">
+      <c r="L36" s="29">
+        <f t="shared" si="8"/>
+        <v>-2.4340535110999997</v>
+      </c>
+      <c r="M36" s="36">
         <f t="shared" si="7"/>
-        <v>0.32189988816063853</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.4897788504687313</v>
+      </c>
+      <c r="N36" s="34">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -10417,16 +11146,19 @@
       <c r="K37" s="28">
         <v>2011</v>
       </c>
-      <c r="L37" s="30">
+      <c r="L37" s="29">
         <f t="shared" si="8"/>
-        <v>5.8499187232639221E-2</v>
-      </c>
-      <c r="M37" s="29">
+        <v>-2.8387424182999998</v>
+      </c>
+      <c r="M37" s="36">
         <f t="shared" si="7"/>
-        <v>0.21476656276109796</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.7374714226395878</v>
+      </c>
+      <c r="N37" s="34">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -10459,16 +11191,19 @@
       <c r="K38" s="28">
         <v>2012</v>
       </c>
-      <c r="L38" s="30">
+      <c r="L38" s="29">
         <f t="shared" si="8"/>
-        <v>0.9347315627754833</v>
-      </c>
-      <c r="M38" s="29">
+        <v>-6.7495889549999952E-2</v>
+      </c>
+      <c r="M38" s="36">
         <f t="shared" si="7"/>
-        <v>3.4316559654626011</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+        <v>4.1311313940555462E-2</v>
+      </c>
+      <c r="N38" s="34">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -10501,16 +11236,19 @@
       <c r="K39" s="28">
         <v>2013</v>
       </c>
-      <c r="L39" s="30">
-        <f>EXP($B$32+$I$32+B39+I39)</f>
-        <v>0.29274651856577544</v>
-      </c>
-      <c r="M39" s="29">
+      <c r="L39" s="29">
+        <f t="shared" si="8"/>
+        <v>-1.22844816875</v>
+      </c>
+      <c r="M39" s="36">
         <f t="shared" si="7"/>
-        <v>1.0747527705405528</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.75187997813315333</v>
+      </c>
+      <c r="N39" s="34">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -10540,16 +11278,19 @@
       <c r="K40" s="28">
         <v>2014</v>
       </c>
-      <c r="L40" s="30">
+      <c r="L40" s="29">
         <f t="shared" si="8"/>
-        <v>0.1066824739985154</v>
-      </c>
-      <c r="M40" s="29">
+        <v>-2.2378983890999997</v>
+      </c>
+      <c r="M40" s="36">
         <f t="shared" si="7"/>
-        <v>0.39166062523904366</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.3697207864885972</v>
+      </c>
+      <c r="N40" s="34">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -10582,16 +11323,19 @@
       <c r="K41" s="28">
         <v>2015</v>
       </c>
-      <c r="L41" s="30">
+      <c r="L41" s="29">
         <f t="shared" si="8"/>
-        <v>0.17214257720655585</v>
-      </c>
-      <c r="M41" s="29">
+        <v>-1.7594322082999998</v>
+      </c>
+      <c r="M41" s="36">
         <f t="shared" si="7"/>
-        <v>0.63198261993735028</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.0768723369496818</v>
+      </c>
+      <c r="N41" s="34">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -10624,16 +11368,19 @@
       <c r="K42" s="28">
         <v>2016</v>
       </c>
-      <c r="L42" s="30">
+      <c r="L42" s="29">
         <f t="shared" si="8"/>
-        <v>0.35526850677071431</v>
-      </c>
-      <c r="M42" s="29">
+        <v>-1.0348814182999999</v>
+      </c>
+      <c r="M42" s="36">
         <f t="shared" si="7"/>
-        <v>1.304288139132354</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.63340614439888687</v>
+      </c>
+      <c r="N42" s="34">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -10666,16 +11413,19 @@
       <c r="K43" s="28">
         <v>2017</v>
       </c>
-      <c r="L43" s="30">
+      <c r="L43" s="29">
         <f t="shared" si="8"/>
-        <v>0.30209681959540247</v>
-      </c>
-      <c r="M43" s="29">
+        <v>-1.1970077182999999</v>
+      </c>
+      <c r="M43" s="36">
         <f t="shared" si="7"/>
-        <v>1.1090802904243526</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.73263663861082196</v>
+      </c>
+      <c r="N43" s="34">
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -10708,16 +11458,19 @@
       <c r="K44" s="28">
         <v>2018</v>
       </c>
-      <c r="L44" s="30">
+      <c r="L44" s="29">
         <f t="shared" si="8"/>
-        <v>0.1604099611171641</v>
-      </c>
-      <c r="M44" s="29">
+        <v>-1.8300224837499997</v>
+      </c>
+      <c r="M44" s="36">
         <f t="shared" si="7"/>
-        <v>0.58890896799593784</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.1200775906282034</v>
+      </c>
+      <c r="N44" s="34">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -10750,16 +11503,19 @@
       <c r="K45" s="28">
         <v>2019</v>
       </c>
-      <c r="L45" s="30">
+      <c r="L45" s="29">
         <f t="shared" si="8"/>
-        <v>0.56963225481759228</v>
-      </c>
-      <c r="M45" s="29">
+        <v>-0.56276429334999989</v>
+      </c>
+      <c r="M45" s="36">
         <f t="shared" si="7"/>
-        <v>2.0912762585660429</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.34444367726859165</v>
+      </c>
+      <c r="N45" s="34">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -10789,19 +11545,22 @@
         <f>H46/2</f>
         <v>8.6671778000000001E-3</v>
       </c>
-      <c r="K46" s="31">
+      <c r="K46" s="30">
         <v>2020</v>
       </c>
-      <c r="L46" s="32">
-        <f>EXP($B$32+$I$32+B46+I46)</f>
-        <v>0.59360112509802088</v>
-      </c>
-      <c r="M46" s="33">
+      <c r="L46" s="31">
+        <f t="shared" si="8"/>
+        <v>-0.52154769174999971</v>
+      </c>
+      <c r="M46" s="37">
         <f>L46/AVERAGE($L$32:$L$46)</f>
-        <v>2.1792725560688253</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.31921677856983366</v>
+      </c>
+      <c r="N46" s="35">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -10821,7 +11580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -10841,7 +11600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -10861,7 +11620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -10881,24 +11640,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E51" s="14"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E52" s="14"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A53" s="34" t="s">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" s="32" t="s">
         <v>26</v>
       </c>
       <c r="E53" s="14"/>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>31</v>
       </c>
@@ -10928,8 +11687,9 @@
       <c r="M56" s="27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N56" s="24"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>39</v>
       </c>
@@ -10962,16 +11722,16 @@
       <c r="K57" s="28">
         <v>2006</v>
       </c>
-      <c r="L57" s="30">
+      <c r="L57" s="29">
         <f>EXP(B57+I57)</f>
         <v>0.84527697391665213</v>
       </c>
-      <c r="M57" s="29">
+      <c r="M57" s="36">
         <f>L57/AVERAGE($L$57:$L$71)</f>
         <v>0.33812056503325971</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -11004,16 +11764,16 @@
       <c r="K58" s="28">
         <v>2007</v>
       </c>
-      <c r="L58" s="30">
+      <c r="L58" s="29">
         <f>EXP($B$57+$I$57+B58+I58)</f>
         <v>1.274318415060075</v>
       </c>
-      <c r="M58" s="29">
+      <c r="M58" s="36">
         <f t="shared" ref="M58:M71" si="13">L58/AVERAGE($L$57:$L$71)</f>
         <v>0.50974210327286928</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -11046,16 +11806,16 @@
       <c r="K59" s="28">
         <v>2008</v>
       </c>
-      <c r="L59" s="30">
+      <c r="L59" s="29">
         <f t="shared" ref="L59:L71" si="14">EXP($B$57+$I$57+B59+I59)</f>
         <v>1.2959748180832642</v>
       </c>
-      <c r="M59" s="29">
+      <c r="M59" s="36">
         <f t="shared" si="13"/>
         <v>0.51840491493430552</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -11088,16 +11848,16 @@
       <c r="K60" s="28">
         <v>2009</v>
       </c>
-      <c r="L60" s="30">
+      <c r="L60" s="29">
         <f t="shared" si="14"/>
         <v>1.3560055777571873</v>
       </c>
-      <c r="M60" s="29">
+      <c r="M60" s="36">
         <f t="shared" si="13"/>
         <v>0.54241791304813347</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>41</v>
       </c>
@@ -11130,16 +11890,16 @@
       <c r="K61" s="28">
         <v>2010</v>
       </c>
-      <c r="L61" s="30">
+      <c r="L61" s="29">
         <f t="shared" si="14"/>
         <v>1.8468530094598747</v>
       </c>
-      <c r="M61" s="29">
+      <c r="M61" s="36">
         <f t="shared" si="13"/>
         <v>0.7387625622859133</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -11169,16 +11929,16 @@
       <c r="K62" s="28">
         <v>2011</v>
       </c>
-      <c r="L62" s="30">
+      <c r="L62" s="29">
         <f t="shared" si="14"/>
         <v>0.97498751387338378</v>
       </c>
-      <c r="M62" s="29">
+      <c r="M62" s="36">
         <f t="shared" si="13"/>
         <v>0.39000628109354823</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>44</v>
       </c>
@@ -11211,16 +11971,16 @@
       <c r="K63" s="28">
         <v>2012</v>
       </c>
-      <c r="L63" s="30">
+      <c r="L63" s="29">
         <f t="shared" si="14"/>
         <v>2.996262622279652</v>
       </c>
-      <c r="M63" s="29">
+      <c r="M63" s="36">
         <f t="shared" si="13"/>
         <v>1.1985397001162463</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -11253,16 +12013,16 @@
       <c r="K64" s="28">
         <v>2013</v>
       </c>
-      <c r="L64" s="30">
+      <c r="L64" s="29">
         <f t="shared" si="14"/>
         <v>4.6167868644626706</v>
       </c>
-      <c r="M64" s="29">
+      <c r="M64" s="36">
         <f t="shared" si="13"/>
         <v>1.8467681380424943</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>45</v>
       </c>
@@ -11295,16 +12055,16 @@
       <c r="K65" s="28">
         <v>2014</v>
       </c>
-      <c r="L65" s="30">
+      <c r="L65" s="29">
         <f t="shared" si="14"/>
         <v>5.0528543574093927</v>
       </c>
-      <c r="M65" s="29">
+      <c r="M65" s="36">
         <f t="shared" si="13"/>
         <v>2.0212001782583693</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>46</v>
       </c>
@@ -11337,16 +12097,16 @@
       <c r="K66" s="28">
         <v>2015</v>
       </c>
-      <c r="L66" s="30">
+      <c r="L66" s="29">
         <f t="shared" si="14"/>
         <v>3.4527684650943073</v>
       </c>
-      <c r="M66" s="29">
+      <c r="M66" s="36">
         <f t="shared" si="13"/>
         <v>1.3811473166449033</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>47</v>
       </c>
@@ -11379,16 +12139,16 @@
       <c r="K67" s="28">
         <v>2016</v>
       </c>
-      <c r="L67" s="30">
+      <c r="L67" s="29">
         <f t="shared" si="14"/>
         <v>2.8118737454448515</v>
       </c>
-      <c r="M67" s="29">
+      <c r="M67" s="36">
         <f t="shared" si="13"/>
         <v>1.1247820169602178</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>48</v>
       </c>
@@ -11421,16 +12181,16 @@
       <c r="K68" s="28">
         <v>2017</v>
       </c>
-      <c r="L68" s="30">
+      <c r="L68" s="29">
         <f t="shared" si="14"/>
         <v>2.8886242909607867</v>
       </c>
-      <c r="M68" s="29">
+      <c r="M68" s="36">
         <f t="shared" si="13"/>
         <v>1.1554831227719773</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -11463,16 +12223,16 @@
       <c r="K69" s="28">
         <v>2018</v>
       </c>
-      <c r="L69" s="30">
+      <c r="L69" s="29">
         <f t="shared" si="14"/>
         <v>2.2108781653720939</v>
       </c>
-      <c r="M69" s="29">
+      <c r="M69" s="36">
         <f t="shared" si="13"/>
         <v>0.88437683453213278</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -11505,16 +12265,16 @@
       <c r="K70" s="28">
         <v>2019</v>
       </c>
-      <c r="L70" s="30">
+      <c r="L70" s="29">
         <f t="shared" si="14"/>
         <v>2.7412820560909119</v>
       </c>
-      <c r="M70" s="29">
+      <c r="M70" s="36">
         <f t="shared" si="13"/>
         <v>1.0965445248392507</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -11544,19 +12304,19 @@
         <f>H71/2</f>
         <v>5.6849784500000002E-3</v>
       </c>
-      <c r="K71" s="31">
+      <c r="K71" s="30">
         <v>2020</v>
       </c>
-      <c r="L71" s="32">
+      <c r="L71" s="31">
         <f t="shared" si="14"/>
         <v>3.1341689552540397</v>
       </c>
-      <c r="M71" s="33">
+      <c r="M71" s="37">
         <f t="shared" si="13"/>
         <v>1.2537038281663766</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>52</v>
       </c>
@@ -11573,7 +12333,7 @@
         <v>0.10866000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -11593,7 +12353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>54</v>
       </c>
@@ -11613,7 +12373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>57</v>
       </c>
@@ -11633,17 +12393,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A77" s="34" t="s">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A77" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>31</v>
       </c>
@@ -11673,6 +12433,7 @@
       <c r="M80" s="27" t="s">
         <v>38</v>
       </c>
+      <c r="N80" s="24"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
@@ -11707,11 +12468,11 @@
       <c r="K81" s="28">
         <v>2006</v>
       </c>
-      <c r="L81" s="30">
+      <c r="L81" s="29">
         <f>EXP(B81+I81)</f>
         <v>8.8908877011474111E-2</v>
       </c>
-      <c r="M81" s="29">
+      <c r="M81" s="36">
         <f>L81/AVERAGE($L$81:$L$95)</f>
         <v>0.31124411355755044</v>
       </c>
@@ -11749,11 +12510,11 @@
       <c r="K82" s="28">
         <v>2007</v>
       </c>
-      <c r="L82" s="30">
+      <c r="L82" s="29">
         <f>EXP($B$81+$I$81+B82+I82)</f>
         <v>0.14871781350770713</v>
       </c>
-      <c r="M82" s="29">
+      <c r="M82" s="36">
         <f t="shared" ref="M82:M95" si="18">L82/AVERAGE($L$81:$L$95)</f>
         <v>0.52061780095872512</v>
       </c>
@@ -11788,11 +12549,11 @@
       <c r="K83" s="28">
         <v>2008</v>
       </c>
-      <c r="L83" s="30">
+      <c r="L83" s="29">
         <f t="shared" ref="L83:L95" si="19">EXP($B$81+$I$81+B83+I83)</f>
         <v>0.11538035336948967</v>
       </c>
-      <c r="M83" s="29">
+      <c r="M83" s="36">
         <f t="shared" si="18"/>
         <v>0.40391305135716865</v>
       </c>
@@ -11830,11 +12591,11 @@
       <c r="K84" s="28">
         <v>2009</v>
       </c>
-      <c r="L84" s="30">
+      <c r="L84" s="29">
         <f t="shared" si="19"/>
         <v>0.14796891773919907</v>
       </c>
-      <c r="M84" s="29">
+      <c r="M84" s="36">
         <f t="shared" si="18"/>
         <v>0.51799613473763217</v>
       </c>
@@ -11869,11 +12630,11 @@
       <c r="K85" s="28">
         <v>2010</v>
       </c>
-      <c r="L85" s="30">
+      <c r="L85" s="29">
         <f t="shared" si="19"/>
         <v>9.8222730482353901E-2</v>
       </c>
-      <c r="M85" s="29">
+      <c r="M85" s="36">
         <f t="shared" si="18"/>
         <v>0.34384920502636718</v>
       </c>
@@ -11911,11 +12672,11 @@
       <c r="K86" s="28">
         <v>2011</v>
       </c>
-      <c r="L86" s="30">
+      <c r="L86" s="29">
         <f t="shared" si="19"/>
         <v>6.3317167916094208E-2</v>
       </c>
-      <c r="M86" s="29">
+      <c r="M86" s="36">
         <f t="shared" si="18"/>
         <v>0.22165498500758277</v>
       </c>
@@ -11953,11 +12714,11 @@
       <c r="K87" s="28">
         <v>2012</v>
       </c>
-      <c r="L87" s="30">
+      <c r="L87" s="29">
         <f t="shared" si="19"/>
         <v>0.85905189397037818</v>
       </c>
-      <c r="M87" s="29">
+      <c r="M87" s="36">
         <f t="shared" si="18"/>
         <v>3.0072907703495022</v>
       </c>
@@ -11995,11 +12756,11 @@
       <c r="K88" s="28">
         <v>2013</v>
       </c>
-      <c r="L88" s="30">
+      <c r="L88" s="29">
         <f t="shared" si="19"/>
         <v>0.33952130708882516</v>
       </c>
-      <c r="M88" s="29">
+      <c r="M88" s="36">
         <f t="shared" si="18"/>
         <v>1.1885653245302437</v>
       </c>
@@ -12034,11 +12795,11 @@
       <c r="K89" s="28">
         <v>2014</v>
       </c>
-      <c r="L89" s="30">
+      <c r="L89" s="29">
         <f t="shared" si="19"/>
         <v>0.12326382037323932</v>
       </c>
-      <c r="M89" s="29">
+      <c r="M89" s="36">
         <f t="shared" si="18"/>
         <v>0.4315107759243747</v>
       </c>
@@ -12076,11 +12837,11 @@
       <c r="K90" s="28">
         <v>2015</v>
       </c>
-      <c r="L90" s="30">
+      <c r="L90" s="29">
         <f t="shared" si="19"/>
         <v>0.22271224949803139</v>
       </c>
-      <c r="M90" s="29">
+      <c r="M90" s="36">
         <f t="shared" si="18"/>
         <v>0.77965079532471193</v>
       </c>
@@ -12118,11 +12879,11 @@
       <c r="K91" s="28">
         <v>2016</v>
       </c>
-      <c r="L91" s="30">
+      <c r="L91" s="29">
         <f t="shared" si="19"/>
         <v>0.35919513540677045</v>
       </c>
-      <c r="M91" s="29">
+      <c r="M91" s="36">
         <f t="shared" si="18"/>
         <v>1.2574376740742836</v>
       </c>
@@ -12160,11 +12921,11 @@
       <c r="K92" s="28">
         <v>2017</v>
       </c>
-      <c r="L92" s="30">
+      <c r="L92" s="29">
         <f t="shared" si="19"/>
         <v>0.3501546884630693</v>
       </c>
-      <c r="M92" s="29">
+      <c r="M92" s="36">
         <f t="shared" si="18"/>
         <v>1.2257896993192634</v>
       </c>
@@ -12202,11 +12963,11 @@
       <c r="K93" s="28">
         <v>2018</v>
       </c>
-      <c r="L93" s="30">
+      <c r="L93" s="29">
         <f t="shared" si="19"/>
         <v>0.17623004232267206</v>
       </c>
-      <c r="M93" s="29">
+      <c r="M93" s="36">
         <f t="shared" si="18"/>
         <v>0.61693011034039869</v>
       </c>
@@ -12244,11 +13005,11 @@
       <c r="K94" s="28">
         <v>2019</v>
       </c>
-      <c r="L94" s="30">
+      <c r="L94" s="29">
         <f t="shared" si="19"/>
         <v>0.56511197801272917</v>
       </c>
-      <c r="M94" s="29">
+      <c r="M94" s="36">
         <f t="shared" si="18"/>
         <v>1.9782926358931141</v>
       </c>
@@ -12283,14 +13044,14 @@
         <f t="shared" si="17"/>
         <v>1.4936832799999999E-2</v>
       </c>
-      <c r="K95" s="31">
+      <c r="K95" s="30">
         <v>2020</v>
       </c>
-      <c r="L95" s="32">
+      <c r="L95" s="31">
         <f t="shared" si="19"/>
         <v>0.62708921816369867</v>
       </c>
-      <c r="M95" s="33">
+      <c r="M95" s="37">
         <f t="shared" si="18"/>
         <v>2.1952569235990813</v>
       </c>

--- a/CPUE/CPUE_MODELOS.xlsx
+++ b/CPUE/CPUE_MODELOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macristina.perez\Documents\GitHub\BSB_PP\CPUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5279B31-702A-49B2-B5DB-CE92FE77DF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4AE5D4-B208-480A-8C0F-F54C5A34005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buzzards Bay" sheetId="6" r:id="rId1"/>
@@ -286,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -525,22 +531,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -555,9 +552,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,40 +760,40 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.84693591968449999</c:v>
+                  <c:v>2.332488957843172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.114858229025</c:v>
+                  <c:v>3.0491358695737927</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90957866569700008</c:v>
+                  <c:v>2.4832760235625106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5113800145000024E-2</c:v>
+                  <c:v>1.0997840035840882</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9767068203890001</c:v>
+                  <c:v>7.2189305624475884</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.605592466409</c:v>
+                  <c:v>4.164407860422938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4265740951449999</c:v>
+                  <c:v>3.8455739546061594</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.346922864797</c:v>
+                  <c:v>5.5180754003399874</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7080291401345</c:v>
+                  <c:v>3.6928332460787581</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.306393980797</c:v>
+                  <c:v>3.9242587141337717</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3671774707565001</c:v>
+                  <c:v>5.9003464158240995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7750110637344998</c:v>
+                  <c:v>1.3600655806948294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,7 +1135,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1437,40 +1444,40 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-1.2267990842355001</c:v>
+                  <c:v>0.29322968059422977</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.2192656545510001</c:v>
+                  <c:v>0.29544704747637934</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.3993862338750001</c:v>
+                  <c:v>0.24674836326173591</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.0369455549910001</c:v>
+                  <c:v>0.13042648360359665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7337604713564998</c:v>
+                  <c:v>2.0828985792779302</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.3959526894175001</c:v>
+                  <c:v>0.3186832567780461</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.1435575949350001</c:v>
+                  <c:v>1.0069832711184112</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9590010049999625E-3</c:v>
+                  <c:v>0.60372824595138941</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.50463110621500018</c:v>
+                  <c:v>0.23017692615693536</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.468907021615</c:v>
+                  <c:v>0.43297772006315288</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.83706900712300014</c:v>
+                  <c:v>0.72206538999985292</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.32563957632350016</c:v>
+                  <c:v>0.29234897096634238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1809,7 +1816,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2127,49 +2134,49 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-0.16197549120000002</c:v>
+                  <c:v>0.85046204808905101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24757856724999996</c:v>
+                  <c:v>1.2809199967920037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26696012125000002</c:v>
+                  <c:v>1.3059883641086991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2243288296</c:v>
+                  <c:v>1.2514824762571373</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45269727359999995</c:v>
+                  <c:v>1.5725480626363486</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-6.7398649400000024E-2</c:v>
+                  <c:v>0.93482246063224628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1774729692499999</c:v>
+                  <c:v>3.2461606814884179</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4580549586</c:v>
+                  <c:v>4.2975923986405551</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4212398100500001</c:v>
+                  <c:v>4.1422528647095564</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0063159775999999</c:v>
+                  <c:v>2.7355047681947258</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.01790365525</c:v>
+                  <c:v>2.7673872810501194</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.98599635484999992</c:v>
+                  <c:v>2.6804812648837357</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.77690281285000007</c:v>
+                  <c:v>2.1747262897966491</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.96595025324999995</c:v>
+                  <c:v>2.6272830549181658</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1447342600499999</c:v>
+                  <c:v>3.1416063955763178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2541,7 +2548,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2859,49 +2866,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.5418167457242424</c:v>
+                  <c:v>0.29566268665885315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.241602777008973</c:v>
+                  <c:v>0.48285647661027475</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3578128358441579</c:v>
+                  <c:v>0.39935523930916778</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2419521233259834</c:v>
+                  <c:v>0.48258095313290528</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4897788504687313</c:v>
+                  <c:v>0.32189988816063853</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7374714226395878</c:v>
+                  <c:v>0.21476656276109796</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1311313940555462E-2</c:v>
+                  <c:v>3.4316559654626011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75187997813315333</c:v>
+                  <c:v>1.0747527705405528</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3697207864885972</c:v>
+                  <c:v>0.39166062523904366</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0768723369496818</c:v>
+                  <c:v>0.63198261993735028</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.63340614439888687</c:v>
+                  <c:v>1.304288139132354</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.73263663861082196</c:v>
+                  <c:v>1.1090802904243526</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1200775906282034</c:v>
+                  <c:v>0.58890896799593784</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.34444367726859165</c:v>
+                  <c:v>2.0912762585660429</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.31921677856983366</c:v>
+                  <c:v>2.1792725560688253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7337,8 +7344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368E9887-5155-46A1-B458-1CC08359F4C2}">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79:M92"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7347,7 +7354,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7386,13 +7393,13 @@
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="N6" s="30" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7426,18 +7433,18 @@
         <f t="shared" ref="I7:I18" si="1">H7/2</f>
         <v>4.7391968449999998E-4</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="27">
         <v>2008</v>
       </c>
-      <c r="L7" s="29">
-        <f>(B7+I7)</f>
-        <v>0.84693591968449999</v>
-      </c>
-      <c r="M7" s="36">
+      <c r="L7" s="36">
+        <f>EXP(B7+I7)</f>
+        <v>2.332488957843172</v>
+      </c>
+      <c r="M7" s="33">
         <f>L7/AVERAGE($L$7:$L$19)</f>
-        <v>0.6565863618516049</v>
-      </c>
-      <c r="N7" s="34">
+        <v>0.62772783969625845</v>
+      </c>
+      <c r="N7" s="31">
         <v>2.58</v>
       </c>
       <c r="O7">
@@ -7475,18 +7482,18 @@
         <f t="shared" si="1"/>
         <v>6.9530934049999991E-4</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="27">
         <v>2009</v>
       </c>
-      <c r="L8" s="29">
-        <f>($B$7+$I$7+B8+I8)</f>
-        <v>1.114858229025</v>
-      </c>
-      <c r="M8" s="36">
+      <c r="L8" s="36">
+        <f>EXP($B$7+$I$7+B8+I8)</f>
+        <v>3.0491358695737927</v>
+      </c>
+      <c r="M8" s="33">
         <f>L8/AVERAGE($L$7:$L$19)</f>
-        <v>0.86429290760100541</v>
-      </c>
-      <c r="N8" s="34">
+        <v>0.82059444093480738</v>
+      </c>
+      <c r="N8" s="31">
         <v>2.87</v>
       </c>
     </row>
@@ -7517,18 +7524,18 @@
         <f t="shared" si="1"/>
         <v>7.5874601249999987E-4</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="27">
         <v>2010</v>
       </c>
-      <c r="L9" s="29">
-        <f t="shared" ref="L9:L11" si="2">($B$7+$I$7+B9+I9)</f>
-        <v>0.90957866569700008</v>
-      </c>
-      <c r="M9" s="36">
+      <c r="L9" s="36">
+        <f t="shared" ref="L9:L19" si="2">EXP($B$7+$I$7+B9+I9)</f>
+        <v>2.4832760235625106</v>
+      </c>
+      <c r="M9" s="33">
         <f>L9/AVERAGE($L$7:$L$19)</f>
-        <v>0.70515009819196872</v>
-      </c>
-      <c r="N9" s="34">
+        <v>0.66830819858707302</v>
+      </c>
+      <c r="N9" s="31">
         <v>2.35</v>
       </c>
     </row>
@@ -7562,18 +7569,18 @@
         <f t="shared" si="1"/>
         <v>1.6438804605E-3</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="27">
         <v>2011</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="36">
         <f t="shared" si="2"/>
-        <v>9.5113800145000024E-2</v>
-      </c>
-      <c r="M10" s="36">
+        <v>1.0997840035840882</v>
+      </c>
+      <c r="M10" s="33">
         <f>L10/AVERAGE($L$7:$L$19)</f>
-        <v>7.3736893840032444E-2</v>
-      </c>
-      <c r="N10" s="34">
+        <v>0.29597783705725023</v>
+      </c>
+      <c r="N10" s="31">
         <v>1.1200000000000001</v>
       </c>
     </row>
@@ -7607,18 +7614,18 @@
         <f t="shared" si="1"/>
         <v>5.0890070450000007E-4</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="27">
         <v>2012</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="36">
         <f t="shared" si="2"/>
-        <v>1.9767068203890001</v>
-      </c>
-      <c r="M11" s="36">
+        <v>7.2189305624475884</v>
+      </c>
+      <c r="M11" s="33">
         <f>L11/AVERAGE($L$7:$L$19)</f>
-        <v>1.5324403056726563</v>
-      </c>
-      <c r="N11" s="34">
+        <v>1.9427846256870482</v>
+      </c>
+      <c r="N11" s="31">
         <v>8.49</v>
       </c>
     </row>
@@ -7652,12 +7659,12 @@
         <f t="shared" si="1"/>
         <v>6.8054672450000011E-4</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="27">
         <v>2013</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="34"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="31"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -7689,18 +7696,18 @@
         <f t="shared" si="1"/>
         <v>7.0917546050000004E-4</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="27">
         <v>2014</v>
       </c>
-      <c r="L13" s="29">
-        <f>($B$7+$I$7+B12+I12)</f>
-        <v>1.605592466409</v>
-      </c>
-      <c r="M13" s="36">
+      <c r="L13" s="36">
+        <f t="shared" si="2"/>
+        <v>4.164407860422938</v>
+      </c>
+      <c r="M13" s="33">
         <f t="shared" ref="M13:M19" si="3">L13/AVERAGE($L$7:$L$19)</f>
-        <v>1.244734213809876</v>
-      </c>
-      <c r="N13" s="34">
+        <v>1.1207404609772098</v>
+      </c>
+      <c r="N13" s="31">
         <v>5.14</v>
       </c>
     </row>
@@ -7734,18 +7741,18 @@
         <f t="shared" si="1"/>
         <v>6.8394511249999991E-4</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="27">
         <v>2015</v>
       </c>
-      <c r="L14" s="29">
-        <f t="shared" ref="L14:L19" si="4">($B$7+$I$7+B13+I13)</f>
-        <v>1.4265740951449999</v>
-      </c>
-      <c r="M14" s="36">
+      <c r="L14" s="36">
+        <f t="shared" si="2"/>
+        <v>3.8455739546061594</v>
+      </c>
+      <c r="M14" s="33">
         <f t="shared" si="3"/>
-        <v>1.1059503715368786</v>
-      </c>
-      <c r="N14" s="34">
+        <v>1.0349347304731928</v>
+      </c>
+      <c r="N14" s="31">
         <v>4.12</v>
       </c>
     </row>
@@ -7779,18 +7786,18 @@
         <f t="shared" si="1"/>
         <v>6.6722044999999999E-4</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="27">
         <v>2016</v>
       </c>
-      <c r="L15" s="29">
-        <f t="shared" si="4"/>
-        <v>1.346922864797</v>
-      </c>
-      <c r="M15" s="36">
+      <c r="L15" s="36">
+        <f t="shared" si="2"/>
+        <v>5.5180754003399874</v>
+      </c>
+      <c r="M15" s="33">
         <f t="shared" si="3"/>
-        <v>1.044200821971571</v>
-      </c>
-      <c r="N15" s="34">
+        <v>1.4850443508806455</v>
+      </c>
+      <c r="N15" s="31">
         <v>3.79</v>
       </c>
     </row>
@@ -7824,18 +7831,18 @@
         <f t="shared" si="1"/>
         <v>5.9806111249999987E-4</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="27">
         <v>2017</v>
       </c>
-      <c r="L16" s="29">
-        <f t="shared" si="4"/>
-        <v>1.7080291401345</v>
-      </c>
-      <c r="M16" s="36">
+      <c r="L16" s="36">
+        <f t="shared" si="2"/>
+        <v>3.6928332460787581</v>
+      </c>
+      <c r="M16" s="33">
         <f t="shared" si="3"/>
-        <v>1.3241481592553133</v>
-      </c>
-      <c r="N16" s="34">
+        <v>0.9938286001846961</v>
+      </c>
+      <c r="N16" s="31">
         <v>5.43</v>
       </c>
     </row>
@@ -7869,18 +7876,18 @@
         <f t="shared" si="1"/>
         <v>6.3055107200000007E-4</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="27">
         <v>2018</v>
       </c>
-      <c r="L17" s="29">
-        <f t="shared" si="4"/>
-        <v>1.306393980797</v>
-      </c>
-      <c r="M17" s="36">
+      <c r="L17" s="36">
+        <f t="shared" si="2"/>
+        <v>3.9242587141337717</v>
+      </c>
+      <c r="M17" s="33">
         <f t="shared" si="3"/>
-        <v>1.0127808386210257</v>
-      </c>
-      <c r="N17" s="34">
+        <v>1.0561106567082137</v>
+      </c>
+      <c r="N17" s="31">
         <v>3.84</v>
       </c>
     </row>
@@ -7914,18 +7921,18 @@
         <f t="shared" si="1"/>
         <v>5.6414405000000006E-4</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="27">
         <v>2019</v>
       </c>
-      <c r="L18" s="29">
-        <f t="shared" si="4"/>
-        <v>1.3671774707565001</v>
-      </c>
-      <c r="M18" s="36">
+      <c r="L18" s="36">
+        <f t="shared" si="2"/>
+        <v>5.9003464158240995</v>
+      </c>
+      <c r="M18" s="33">
         <f t="shared" si="3"/>
-        <v>1.0599031882646905</v>
-      </c>
-      <c r="N18" s="34">
+        <v>1.5879225051036034</v>
+      </c>
+      <c r="N18" s="31">
         <v>3.77</v>
       </c>
     </row>
@@ -7948,18 +7955,18 @@
       <c r="F19" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="28">
         <v>2020</v>
       </c>
-      <c r="L19" s="31">
-        <f t="shared" si="4"/>
-        <v>1.7750110637344998</v>
-      </c>
-      <c r="M19" s="37">
+      <c r="L19" s="37">
+        <f t="shared" si="2"/>
+        <v>1.3600655806948294</v>
+      </c>
+      <c r="M19" s="34">
         <f t="shared" si="3"/>
-        <v>1.376075839383379</v>
-      </c>
-      <c r="N19" s="35">
+        <v>0.36602575371000129</v>
+      </c>
+      <c r="N19" s="32">
         <v>5.64</v>
       </c>
     </row>
@@ -8046,7 +8053,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="29" t="s">
         <v>14</v>
       </c>
       <c r="F28" s="14"/>
@@ -8080,13 +8087,13 @@
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="26" t="s">
+      <c r="L31" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="27" t="s">
+      <c r="M31" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="33" t="s">
+      <c r="N31" s="30" t="s">
         <v>64</v>
       </c>
     </row>
@@ -8113,25 +8120,25 @@
         <v>2008</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32:H43" si="5">C32^2</f>
+        <f t="shared" ref="H32:H43" si="4">C32^2</f>
         <v>4.9318315289999994E-3</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32:I43" si="6">H32/2</f>
+        <f t="shared" ref="I32:I43" si="5">H32/2</f>
         <v>2.4659157644999997E-3</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="27">
         <v>2008</v>
       </c>
-      <c r="L32" s="29">
-        <f>(B32+I32)</f>
-        <v>-1.2267990842355001</v>
-      </c>
-      <c r="M32" s="36">
+      <c r="L32" s="36">
+        <f>EXP(B32+I32)</f>
+        <v>0.29322968059422977</v>
+      </c>
+      <c r="M32" s="33">
         <f>L32/AVERAGE($L$32:$L$44)</f>
-        <v>1.3609132204114487</v>
-      </c>
-      <c r="N32" s="34">
+        <v>0.52868200186546066</v>
+      </c>
+      <c r="N32" s="31">
         <v>0.53500000000000003</v>
       </c>
     </row>
@@ -8155,25 +8162,25 @@
         <v>2009</v>
       </c>
       <c r="H33">
+        <f t="shared" si="4"/>
+        <v>6.8828593689999988E-3</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="5"/>
-        <v>6.8828593689999988E-3</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="6"/>
         <v>3.4414296844999994E-3</v>
       </c>
-      <c r="K33" s="28">
+      <c r="K33" s="27">
         <v>2009</v>
       </c>
-      <c r="L33" s="29">
-        <f>($B$32+$I$32+B33+I33)</f>
-        <v>-1.2192656545510001</v>
-      </c>
-      <c r="M33" s="36">
+      <c r="L33" s="36">
+        <f>EXP($B$32+$I$32+B33+I33)</f>
+        <v>0.29544704747637934</v>
+      </c>
+      <c r="M33" s="33">
         <f>L33/AVERAGE($L$32:$L$44)</f>
-        <v>1.3525562333673435</v>
-      </c>
-      <c r="N33" s="34">
+        <v>0.53267983032453547</v>
+      </c>
+      <c r="N33" s="31">
         <v>0.52700000000000002</v>
       </c>
     </row>
@@ -8200,25 +8207,25 @@
         <v>2010</v>
       </c>
       <c r="H34">
+        <f t="shared" si="4"/>
+        <v>7.4717007210000005E-3</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="5"/>
-        <v>7.4717007210000005E-3</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="6"/>
         <v>3.7358503605000003E-3</v>
       </c>
-      <c r="K34" s="28">
+      <c r="K34" s="27">
         <v>2010</v>
       </c>
-      <c r="L34" s="29">
-        <f t="shared" ref="L34:L36" si="7">($B$32+$I$32+B34+I34)</f>
-        <v>-1.3993862338750001</v>
-      </c>
-      <c r="M34" s="36">
+      <c r="L34" s="36">
+        <f t="shared" ref="L34:L44" si="6">EXP($B$32+$I$32+B34+I34)</f>
+        <v>0.24674836326173591</v>
+      </c>
+      <c r="M34" s="33">
         <f>L34/AVERAGE($L$32:$L$44)</f>
-        <v>1.552367662003155</v>
-      </c>
-      <c r="N34" s="34">
+        <v>0.44487794817318871</v>
+      </c>
+      <c r="N34" s="31">
         <v>0.44500000000000001</v>
       </c>
     </row>
@@ -8245,25 +8252,25 @@
         <v>2011</v>
       </c>
       <c r="H35">
+        <f t="shared" si="4"/>
+        <v>1.4145058488999999E-2</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="5"/>
-        <v>1.4145058488999999E-2</v>
-      </c>
-      <c r="I35">
+        <v>7.0725292444999994E-3</v>
+      </c>
+      <c r="K35" s="27">
+        <v>2011</v>
+      </c>
+      <c r="L35" s="36">
         <f t="shared" si="6"/>
-        <v>7.0725292444999994E-3</v>
-      </c>
-      <c r="K35" s="28">
-        <v>2011</v>
-      </c>
-      <c r="L35" s="29">
-        <f t="shared" si="7"/>
-        <v>-2.0369455549910001</v>
-      </c>
-      <c r="M35" s="36">
+        <v>0.13042648360359665</v>
+      </c>
+      <c r="M35" s="33">
         <f>L35/AVERAGE($L$32:$L$44)</f>
-        <v>2.2596252073118155</v>
-      </c>
-      <c r="N35" s="34">
+        <v>0.23515400728905292</v>
+      </c>
+      <c r="N35" s="31">
         <v>0.26700000000000002</v>
       </c>
     </row>
@@ -8290,25 +8297,25 @@
         <v>2012</v>
       </c>
       <c r="H36">
+        <f t="shared" si="4"/>
+        <v>4.0231111839999995E-3</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="5"/>
-        <v>4.0231111839999995E-3</v>
-      </c>
-      <c r="I36">
+        <v>2.0115555919999997E-3</v>
+      </c>
+      <c r="K36" s="27">
+        <v>2012</v>
+      </c>
+      <c r="L36" s="36">
         <f t="shared" si="6"/>
-        <v>2.0115555919999997E-3</v>
-      </c>
-      <c r="K36" s="28">
-        <v>2012</v>
-      </c>
-      <c r="L36" s="29">
-        <f t="shared" si="7"/>
-        <v>0.7337604713564998</v>
-      </c>
-      <c r="M36" s="36">
+        <v>2.0828985792779302</v>
+      </c>
+      <c r="M36" s="33">
         <f>L36/AVERAGE($L$32:$L$44)</f>
-        <v>-0.81397544138752009</v>
-      </c>
-      <c r="N36" s="34">
+        <v>3.7553872048143875</v>
+      </c>
+      <c r="N36" s="31">
         <v>4.12</v>
       </c>
     </row>
@@ -8335,18 +8342,19 @@
         <v>2014</v>
       </c>
       <c r="H37">
+        <f t="shared" si="4"/>
+        <v>9.1787896360000006E-3</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="5"/>
-        <v>9.1787896360000006E-3</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="6"/>
         <v>4.5893948180000003E-3</v>
       </c>
-      <c r="K37" s="28">
+      <c r="K37" s="27">
         <v>2013</v>
       </c>
-      <c r="M37" s="36"/>
-      <c r="N37" s="34"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="31"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
@@ -8368,25 +8376,25 @@
         <v>2015</v>
       </c>
       <c r="H38">
+        <f t="shared" si="4"/>
+        <v>7.7529786010000004E-3</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="5"/>
-        <v>7.7529786010000004E-3</v>
-      </c>
-      <c r="I38">
+        <v>3.8764893005000002E-3</v>
+      </c>
+      <c r="K38" s="27">
+        <v>2014</v>
+      </c>
+      <c r="L38" s="36">
         <f t="shared" si="6"/>
-        <v>3.8764893005000002E-3</v>
-      </c>
-      <c r="K38" s="28">
-        <v>2014</v>
-      </c>
-      <c r="L38" s="29">
-        <f>($B$32+$I$32+B37+I37)</f>
-        <v>-1.3959526894175001</v>
-      </c>
-      <c r="M38" s="36">
-        <f t="shared" ref="M38:M44" si="8">L38/AVERAGE($L$32:$L$44)</f>
-        <v>1.5485587611773168</v>
-      </c>
-      <c r="N38" s="34">
+        <v>0.3186832567780461</v>
+      </c>
+      <c r="M38" s="33">
+        <f t="shared" ref="M38:M44" si="7">L38/AVERAGE($L$32:$L$44)</f>
+        <v>0.57457383513494675</v>
+      </c>
+      <c r="N38" s="31">
         <v>0.51700000000000002</v>
       </c>
     </row>
@@ -8413,25 +8421,25 @@
         <v>2016</v>
       </c>
       <c r="H39">
+        <f t="shared" si="4"/>
+        <v>4.6841704809999999E-3</v>
+      </c>
+      <c r="I39">
         <f t="shared" si="5"/>
-        <v>4.6841704809999999E-3</v>
-      </c>
-      <c r="I39">
+        <v>2.3420852404999999E-3</v>
+      </c>
+      <c r="K39" s="27">
+        <v>2015</v>
+      </c>
+      <c r="L39" s="36">
         <f t="shared" si="6"/>
-        <v>2.3420852404999999E-3</v>
-      </c>
-      <c r="K39" s="28">
-        <v>2015</v>
-      </c>
-      <c r="L39" s="29">
-        <f t="shared" ref="L39:L44" si="9">($B$32+$I$32+B38+I38)</f>
-        <v>-1.1435575949350001</v>
-      </c>
-      <c r="M39" s="36">
-        <f t="shared" si="8"/>
-        <v>1.2685717402689332</v>
-      </c>
-      <c r="N39" s="34">
+        <v>1.0069832711184112</v>
+      </c>
+      <c r="M39" s="33">
+        <f t="shared" si="7"/>
+        <v>1.8155526771405137</v>
+      </c>
+      <c r="N39" s="31">
         <v>0.625</v>
       </c>
     </row>
@@ -8458,25 +8466,25 @@
         <v>2017</v>
       </c>
       <c r="H40">
+        <f t="shared" si="4"/>
+        <v>6.1119560409999994E-3</v>
+      </c>
+      <c r="I40">
         <f t="shared" si="5"/>
-        <v>6.1119560409999994E-3</v>
-      </c>
-      <c r="I40">
+        <v>3.0559780204999997E-3</v>
+      </c>
+      <c r="K40" s="27">
+        <v>2016</v>
+      </c>
+      <c r="L40" s="36">
         <f t="shared" si="6"/>
-        <v>3.0559780204999997E-3</v>
-      </c>
-      <c r="K40" s="28">
-        <v>2016</v>
-      </c>
-      <c r="L40" s="29">
-        <f t="shared" si="9"/>
-        <v>6.9590010049999625E-3</v>
-      </c>
-      <c r="M40" s="36">
-        <f t="shared" si="8"/>
-        <v>-7.7197616058400989E-3</v>
-      </c>
-      <c r="N40" s="34">
+        <v>0.60372824595138941</v>
+      </c>
+      <c r="M40" s="33">
+        <f t="shared" si="7"/>
+        <v>1.0884991485360049</v>
+      </c>
+      <c r="N40" s="31">
         <v>1.96</v>
       </c>
     </row>
@@ -8503,25 +8511,25 @@
         <v>2018</v>
       </c>
       <c r="H41">
+        <f t="shared" si="4"/>
+        <v>7.7741252410000001E-3</v>
+      </c>
+      <c r="I41">
         <f t="shared" si="5"/>
-        <v>7.7741252410000001E-3</v>
-      </c>
-      <c r="I41">
+        <v>3.8870626205000001E-3</v>
+      </c>
+      <c r="K41" s="27">
+        <v>2017</v>
+      </c>
+      <c r="L41" s="36">
         <f t="shared" si="6"/>
-        <v>3.8870626205000001E-3</v>
-      </c>
-      <c r="K41" s="28">
-        <v>2017</v>
-      </c>
-      <c r="L41" s="29">
-        <f t="shared" si="9"/>
-        <v>-0.50463110621500018</v>
-      </c>
-      <c r="M41" s="36">
-        <f t="shared" si="8"/>
-        <v>0.55979756808085079</v>
-      </c>
-      <c r="N41" s="34">
+        <v>0.23017692615693536</v>
+      </c>
+      <c r="M41" s="33">
+        <f t="shared" si="7"/>
+        <v>0.41500027506520276</v>
+      </c>
+      <c r="N41" s="31">
         <v>1.1599999999999999</v>
       </c>
     </row>
@@ -8548,25 +8556,25 @@
         <v>2019</v>
       </c>
       <c r="H42">
+        <f t="shared" si="4"/>
+        <v>5.8041542250000001E-3</v>
+      </c>
+      <c r="I42">
         <f t="shared" si="5"/>
-        <v>5.8041542250000001E-3</v>
-      </c>
-      <c r="I42">
+        <v>2.9020771125000001E-3</v>
+      </c>
+      <c r="K42" s="27">
+        <v>2018</v>
+      </c>
+      <c r="L42" s="36">
         <f t="shared" si="6"/>
-        <v>2.9020771125000001E-3</v>
-      </c>
-      <c r="K42" s="28">
-        <v>2018</v>
-      </c>
-      <c r="L42" s="29">
-        <f t="shared" si="9"/>
-        <v>-1.468907021615</v>
-      </c>
-      <c r="M42" s="36">
-        <f t="shared" si="8"/>
-        <v>1.6294884883426555</v>
-      </c>
-      <c r="N42" s="34">
+        <v>0.43297772006315288</v>
+      </c>
+      <c r="M42" s="33">
+        <f t="shared" si="7"/>
+        <v>0.78064242112957238</v>
+      </c>
+      <c r="N42" s="31">
         <v>0.41699999999999998</v>
       </c>
     </row>
@@ -8593,25 +8601,25 @@
         <v>2020</v>
       </c>
       <c r="H43">
+        <f t="shared" si="4"/>
+        <v>5.0030158240000006E-3</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="5"/>
-        <v>5.0030158240000006E-3</v>
-      </c>
-      <c r="I43">
+        <v>2.5015079120000003E-3</v>
+      </c>
+      <c r="K43" s="27">
+        <v>2019</v>
+      </c>
+      <c r="L43" s="36">
         <f t="shared" si="6"/>
-        <v>2.5015079120000003E-3</v>
-      </c>
-      <c r="K43" s="28">
-        <v>2019</v>
-      </c>
-      <c r="L43" s="29">
-        <f t="shared" si="9"/>
-        <v>-0.83706900712300014</v>
-      </c>
-      <c r="M43" s="36">
-        <f t="shared" si="8"/>
-        <v>0.92857770504472914</v>
-      </c>
-      <c r="N43" s="34">
+        <v>0.72206538999985292</v>
+      </c>
+      <c r="M43" s="33">
+        <f t="shared" si="7"/>
+        <v>1.3018565347453401</v>
+      </c>
+      <c r="N43" s="31">
         <v>0.79300000000000004</v>
       </c>
     </row>
@@ -8631,18 +8639,18 @@
       <c r="E44" s="14">
         <v>0.95652999999999999</v>
       </c>
-      <c r="K44" s="30">
+      <c r="K44" s="28">
         <v>2020</v>
       </c>
-      <c r="L44" s="31">
-        <f t="shared" si="9"/>
-        <v>-0.32563957632350016</v>
-      </c>
-      <c r="M44" s="37">
-        <f t="shared" si="8"/>
-        <v>0.36123861698511228</v>
-      </c>
-      <c r="N44" s="35">
+      <c r="L44" s="37">
+        <f t="shared" si="6"/>
+        <v>0.29234897096634238</v>
+      </c>
+      <c r="M44" s="34">
+        <f t="shared" si="7"/>
+        <v>0.52709411578179377</v>
+      </c>
+      <c r="N44" s="32">
         <v>1.36</v>
       </c>
     </row>
@@ -8732,7 +8740,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="29" t="s">
         <v>19</v>
       </c>
       <c r="E51" s="14"/>
@@ -8766,10 +8774,10 @@
       </c>
       <c r="J55" s="24"/>
       <c r="K55" s="25"/>
-      <c r="L55" s="26" t="s">
+      <c r="L55" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="M55" s="27" t="s">
+      <c r="M55" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N55" s="24"/>
@@ -8801,17 +8809,17 @@
         <v>3.6072036000000004E-3</v>
       </c>
       <c r="I56">
-        <f t="shared" ref="I56:I67" si="10">H56/2</f>
+        <f t="shared" ref="I56:I67" si="8">H56/2</f>
         <v>1.8036018000000002E-3</v>
       </c>
-      <c r="K56" s="28">
+      <c r="K56" s="27">
         <v>2008</v>
       </c>
-      <c r="L56" s="29">
+      <c r="L56" s="38">
         <f>EXP(B56+I56)</f>
         <v>2.2498726211690334</v>
       </c>
-      <c r="M56" s="36">
+      <c r="M56" s="33">
         <f>L56/AVERAGE($L$56:$L$68)</f>
         <v>0.53824065273791077</v>
       </c>
@@ -8839,21 +8847,21 @@
         <v>2009</v>
       </c>
       <c r="H57">
-        <f t="shared" ref="H57:H66" si="11">C57^2</f>
+        <f t="shared" ref="H57:H66" si="9">C57^2</f>
         <v>5.1696100000000007E-3</v>
       </c>
       <c r="I57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.5848050000000003E-3</v>
       </c>
-      <c r="K57" s="28">
+      <c r="K57" s="27">
         <v>2009</v>
       </c>
-      <c r="L57" s="29">
+      <c r="L57" s="38">
         <f>EXP($B$56+$I$56+B57+I57)</f>
         <v>3.1748754613382846</v>
       </c>
-      <c r="M57" s="36">
+      <c r="M57" s="33">
         <f>L57/AVERAGE($L$56:$L$68)</f>
         <v>0.75953057279499558</v>
       </c>
@@ -8881,21 +8889,21 @@
         <v>2010</v>
       </c>
       <c r="H58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>5.2316289000000011E-3</v>
       </c>
       <c r="I58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.6158144500000005E-3</v>
       </c>
-      <c r="K58" s="28">
+      <c r="K58" s="27">
         <v>2010</v>
       </c>
-      <c r="L58" s="29">
-        <f t="shared" ref="L58:L60" si="12">EXP($B$56+$I$56+B58+I58)</f>
+      <c r="L58" s="38">
+        <f t="shared" ref="L58:L60" si="10">EXP($B$56+$I$56+B58+I58)</f>
         <v>2.7505184364339637</v>
       </c>
-      <c r="M58" s="36">
+      <c r="M58" s="33">
         <f>L58/AVERAGE($L$56:$L$68)</f>
         <v>0.65801095789353514</v>
       </c>
@@ -8923,21 +8931,21 @@
         <v>2011</v>
       </c>
       <c r="H59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>8.0928015999999995E-3</v>
       </c>
       <c r="I59">
+        <f t="shared" si="8"/>
+        <v>4.0464007999999997E-3</v>
+      </c>
+      <c r="K59" s="27">
+        <v>2011</v>
+      </c>
+      <c r="L59" s="38">
         <f t="shared" si="10"/>
-        <v>4.0464007999999997E-3</v>
-      </c>
-      <c r="K59" s="28">
-        <v>2011</v>
-      </c>
-      <c r="L59" s="29">
-        <f t="shared" si="12"/>
         <v>1.1737573372042136</v>
       </c>
-      <c r="M59" s="36">
+      <c r="M59" s="33">
         <f>L59/AVERAGE($L$56:$L$68)</f>
         <v>0.28079985924022827</v>
       </c>
@@ -8965,21 +8973,21 @@
         <v>2012</v>
       </c>
       <c r="H60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>5.3890281000000002E-3</v>
       </c>
       <c r="I60">
+        <f t="shared" si="8"/>
+        <v>2.6945140500000001E-3</v>
+      </c>
+      <c r="K60" s="27">
+        <v>2012</v>
+      </c>
+      <c r="L60" s="38">
         <f t="shared" si="10"/>
-        <v>2.6945140500000001E-3</v>
-      </c>
-      <c r="K60" s="28">
-        <v>2012</v>
-      </c>
-      <c r="L60" s="29">
-        <f t="shared" si="12"/>
         <v>6.7374270980496984</v>
       </c>
-      <c r="M60" s="36">
+      <c r="M60" s="33">
         <f>L60/AVERAGE($L$56:$L$68)</f>
         <v>1.6118055417484494</v>
       </c>
@@ -9007,17 +9015,18 @@
         <v>2014</v>
       </c>
       <c r="H61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>6.241E-3</v>
       </c>
       <c r="I61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>3.1205E-3</v>
       </c>
-      <c r="K61" s="28">
+      <c r="K61" s="27">
         <v>2013</v>
       </c>
-      <c r="M61" s="36"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="33"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
@@ -9042,22 +9051,22 @@
         <v>2015</v>
       </c>
       <c r="H62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>5.9459520999999996E-3</v>
       </c>
       <c r="I62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.9729760499999998E-3</v>
       </c>
-      <c r="K62" s="28">
+      <c r="K62" s="27">
         <v>2014</v>
       </c>
-      <c r="L62" s="29">
-        <f t="shared" ref="L62:L68" si="13">EXP($B$56+$I$56+B61+I61)</f>
+      <c r="L62" s="38">
+        <f t="shared" ref="L62:L68" si="11">EXP($B$56+$I$56+B61+I61)</f>
         <v>5.0202217287403705</v>
       </c>
-      <c r="M62" s="36">
-        <f t="shared" ref="M62:M68" si="14">L62/AVERAGE($L$56:$L$68)</f>
+      <c r="M62" s="33">
+        <f t="shared" ref="M62:M68" si="12">L62/AVERAGE($L$56:$L$68)</f>
         <v>1.200995734043937</v>
       </c>
     </row>
@@ -9084,22 +9093,22 @@
         <v>2016</v>
       </c>
       <c r="H63">
+        <f t="shared" si="9"/>
+        <v>5.5935440999999994E-3</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="8"/>
+        <v>2.7967720499999997E-3</v>
+      </c>
+      <c r="K63" s="27">
+        <v>2015</v>
+      </c>
+      <c r="L63" s="38">
         <f t="shared" si="11"/>
-        <v>5.5935440999999994E-3</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="10"/>
-        <v>2.7967720499999997E-3</v>
-      </c>
-      <c r="K63" s="28">
-        <v>2015</v>
-      </c>
-      <c r="L63" s="29">
-        <f t="shared" si="13"/>
         <v>4.717111197735985</v>
       </c>
-      <c r="M63" s="36">
-        <f t="shared" si="14"/>
+      <c r="M63" s="33">
+        <f t="shared" si="12"/>
         <v>1.1284821132618128</v>
       </c>
     </row>
@@ -9126,22 +9135,22 @@
         <v>2017</v>
       </c>
       <c r="H64">
+        <f t="shared" si="9"/>
+        <v>6.2552280999999986E-3</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="8"/>
+        <v>3.1276140499999993E-3</v>
+      </c>
+      <c r="K64" s="27">
+        <v>2016</v>
+      </c>
+      <c r="L64" s="38">
         <f t="shared" si="11"/>
-        <v>6.2552280999999986E-3</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="10"/>
-        <v>3.1276140499999993E-3</v>
-      </c>
-      <c r="K64" s="28">
-        <v>2016</v>
-      </c>
-      <c r="L64" s="29">
-        <f t="shared" si="13"/>
         <v>3.8823489651823988</v>
       </c>
-      <c r="M64" s="36">
-        <f t="shared" si="14"/>
+      <c r="M64" s="33">
+        <f t="shared" si="12"/>
         <v>0.92878059918358902</v>
       </c>
     </row>
@@ -9168,22 +9177,22 @@
         <v>2018</v>
       </c>
       <c r="H65">
+        <f t="shared" si="9"/>
+        <v>4.9126081000000002E-3</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="8"/>
+        <v>2.4563040500000001E-3</v>
+      </c>
+      <c r="K65" s="27">
+        <v>2017</v>
+      </c>
+      <c r="L65" s="38">
         <f t="shared" si="11"/>
-        <v>4.9126081000000002E-3</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="10"/>
-        <v>2.4563040500000001E-3</v>
-      </c>
-      <c r="K65" s="28">
-        <v>2017</v>
-      </c>
-      <c r="L65" s="29">
-        <f t="shared" si="13"/>
         <v>5.8123863373048987</v>
       </c>
-      <c r="M65" s="36">
-        <f t="shared" si="14"/>
+      <c r="M65" s="33">
+        <f t="shared" si="12"/>
         <v>1.3905065498909688</v>
       </c>
     </row>
@@ -9210,22 +9219,22 @@
         <v>2019</v>
       </c>
       <c r="H66">
+        <f t="shared" si="9"/>
+        <v>5.0481025000000002E-3</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="8"/>
+        <v>2.5240512500000001E-3</v>
+      </c>
+      <c r="K66" s="27">
+        <v>2018</v>
+      </c>
+      <c r="L66" s="38">
         <f t="shared" si="11"/>
-        <v>5.0481025000000002E-3</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="10"/>
-        <v>2.5240512500000001E-3</v>
-      </c>
-      <c r="K66" s="28">
-        <v>2018</v>
-      </c>
-      <c r="L66" s="29">
-        <f t="shared" si="13"/>
         <v>4.2476670629228757</v>
       </c>
-      <c r="M66" s="36">
-        <f t="shared" si="14"/>
+      <c r="M66" s="33">
+        <f t="shared" si="12"/>
         <v>1.0161762364008808</v>
       </c>
     </row>
@@ -9256,18 +9265,18 @@
         <v>5.0922496000000012E-3</v>
       </c>
       <c r="I67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.5461248000000006E-3</v>
       </c>
-      <c r="K67" s="28">
+      <c r="K67" s="27">
         <v>2019</v>
       </c>
-      <c r="L67" s="29">
-        <f t="shared" si="13"/>
+      <c r="L67" s="38">
+        <f t="shared" si="11"/>
         <v>4.3089646422848977</v>
       </c>
-      <c r="M67" s="36">
-        <f t="shared" si="14"/>
+      <c r="M67" s="33">
+        <f t="shared" si="12"/>
         <v>1.0308405550901432</v>
       </c>
     </row>
@@ -9290,15 +9299,15 @@
       <c r="F68" t="s">
         <v>21</v>
       </c>
-      <c r="K68" s="30">
+      <c r="K68" s="28">
         <v>2020</v>
       </c>
-      <c r="L68" s="31">
-        <f t="shared" si="13"/>
+      <c r="L68" s="37">
+        <f t="shared" si="11"/>
         <v>6.0854442221906488</v>
       </c>
-      <c r="M68" s="37">
-        <f t="shared" si="14"/>
+      <c r="M68" s="34">
+        <f t="shared" si="12"/>
         <v>1.4558306277135495</v>
       </c>
     </row>
@@ -9385,7 +9394,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="29" t="s">
         <v>20</v>
       </c>
     </row>
@@ -9418,10 +9427,10 @@
       </c>
       <c r="J79" s="24"/>
       <c r="K79" s="25"/>
-      <c r="L79" s="26" t="s">
+      <c r="L79" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="M79" s="27" t="s">
+      <c r="M79" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N79" s="24"/>
@@ -9453,17 +9462,17 @@
         <v>8.7497315999999995E-3</v>
       </c>
       <c r="I80">
-        <f t="shared" ref="I80:I84" si="15">H80/2</f>
+        <f t="shared" ref="I80:I84" si="13">H80/2</f>
         <v>4.3748657999999998E-3</v>
       </c>
-      <c r="K80" s="28">
+      <c r="K80" s="27">
         <v>2008</v>
       </c>
       <c r="L80" s="38">
         <f>EXP(B80+I80)</f>
         <v>0.3203294971980486</v>
       </c>
-      <c r="M80" s="36">
+      <c r="M80" s="33">
         <f>L80/AVERAGE($L$80:$L$92)</f>
         <v>0.48807561114279352</v>
       </c>
@@ -9491,21 +9500,21 @@
         <v>2009</v>
       </c>
       <c r="H81">
-        <f t="shared" ref="H81:H84" si="16">C81^2</f>
+        <f t="shared" ref="H81:H84" si="14">C81^2</f>
         <v>1.21E-2</v>
       </c>
       <c r="I81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>6.0499999999999998E-3</v>
       </c>
-      <c r="K81" s="28">
+      <c r="K81" s="27">
         <v>2009</v>
       </c>
       <c r="L81" s="38">
         <f>EXP($B$80+$I$80+B81+I81)</f>
         <v>0.39065708111865749</v>
       </c>
-      <c r="M81" s="36">
+      <c r="M81" s="33">
         <f>L81/AVERAGE($L$56:$L$68)</f>
         <v>9.3457523043565999E-2</v>
       </c>
@@ -9530,21 +9539,21 @@
         <v>2010</v>
       </c>
       <c r="H82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.2452328099999998E-2</v>
       </c>
       <c r="I82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>6.2261640499999991E-3</v>
       </c>
-      <c r="K82" s="28">
+      <c r="K82" s="27">
         <v>2010</v>
       </c>
       <c r="L82" s="38">
-        <f t="shared" ref="L82:L83" si="17">EXP($B$80+$I$80+B82+I82)</f>
+        <f t="shared" ref="L82:L83" si="15">EXP($B$80+$I$80+B82+I82)</f>
         <v>0.34500755275393963</v>
       </c>
-      <c r="M82" s="36">
+      <c r="M82" s="33">
         <f>L82/AVERAGE($L$56:$L$68)</f>
         <v>8.2536712810568583E-2</v>
       </c>
@@ -9572,21 +9581,21 @@
         <v>2011</v>
       </c>
       <c r="H83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2.0629576900000002E-2</v>
       </c>
       <c r="I83">
+        <f t="shared" si="13"/>
+        <v>1.0314788450000001E-2</v>
+      </c>
+      <c r="K83" s="27">
+        <v>2011</v>
+      </c>
+      <c r="L83" s="38">
         <f t="shared" si="15"/>
-        <v>1.0314788450000001E-2</v>
-      </c>
-      <c r="K83" s="28">
-        <v>2011</v>
-      </c>
-      <c r="L83" s="38">
-        <f t="shared" si="17"/>
         <v>0.16385222150766598</v>
       </c>
-      <c r="M83" s="36">
+      <c r="M83" s="33">
         <f>L83/AVERAGE($L$56:$L$68)</f>
         <v>3.9198630992281859E-2</v>
       </c>
@@ -9614,21 +9623,21 @@
         <v>2012</v>
       </c>
       <c r="H84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>9.6353855999999991E-3</v>
       </c>
       <c r="I84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>4.8176927999999996E-3</v>
       </c>
-      <c r="K84" s="28">
+      <c r="K84" s="27">
         <v>2012</v>
       </c>
       <c r="L84" s="38">
         <f>EXP($B$80+$I$80+B84+I84)</f>
         <v>2.194079417100145</v>
       </c>
-      <c r="M84" s="36">
+      <c r="M84" s="33">
         <f>L84/AVERAGE($L$56:$L$68)</f>
         <v>0.52489315462009545</v>
       </c>
@@ -9653,18 +9662,18 @@
         <v>2014</v>
       </c>
       <c r="H85">
-        <f t="shared" ref="H85:H91" si="18">C85^2</f>
+        <f t="shared" ref="H85:H91" si="16">C85^2</f>
         <v>1.59820164E-2</v>
       </c>
       <c r="I85">
-        <f t="shared" ref="I85:I91" si="19">H85/2</f>
+        <f t="shared" ref="I85:I91" si="17">H85/2</f>
         <v>7.9910082E-3</v>
       </c>
-      <c r="K85" s="28">
+      <c r="K85" s="27">
         <v>2013</v>
       </c>
       <c r="L85" s="38"/>
-      <c r="M85" s="36"/>
+      <c r="M85" s="33"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
@@ -9689,22 +9698,22 @@
         <v>2015</v>
       </c>
       <c r="H86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1.3572250000000001E-2</v>
       </c>
       <c r="I86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>6.7861250000000005E-3</v>
       </c>
-      <c r="K86" s="28">
+      <c r="K86" s="27">
         <v>2014</v>
       </c>
       <c r="L86" s="38">
         <f>EXP($B$80+$I$80+B85+I85)</f>
         <v>0.29672362588144763</v>
       </c>
-      <c r="M86" s="36">
-        <f t="shared" ref="M86:M92" si="20">L86/AVERAGE($L$56:$L$68)</f>
+      <c r="M86" s="33">
+        <f t="shared" ref="M86:M92" si="18">L86/AVERAGE($L$56:$L$68)</f>
         <v>7.0985671177333315E-2</v>
       </c>
     </row>
@@ -9731,22 +9740,22 @@
         <v>2016</v>
       </c>
       <c r="H87">
+        <f t="shared" si="16"/>
+        <v>1.0424409999999999E-2</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="17"/>
+        <v>5.2122049999999993E-3</v>
+      </c>
+      <c r="K87" s="27">
+        <v>2015</v>
+      </c>
+      <c r="L87" s="38">
+        <f t="shared" ref="L87:L92" si="19">EXP($B$80+$I$80+B86+I86)</f>
+        <v>0.44856171259042121</v>
+      </c>
+      <c r="M87" s="33">
         <f t="shared" si="18"/>
-        <v>1.0424409999999999E-2</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="19"/>
-        <v>5.2122049999999993E-3</v>
-      </c>
-      <c r="K87" s="28">
-        <v>2015</v>
-      </c>
-      <c r="L87" s="38">
-        <f t="shared" ref="L87:L92" si="21">EXP($B$80+$I$80+B86+I86)</f>
-        <v>0.44856171259042121</v>
-      </c>
-      <c r="M87" s="36">
-        <f t="shared" si="20"/>
         <v>0.10731014134144817</v>
       </c>
     </row>
@@ -9773,22 +9782,22 @@
         <v>2017</v>
       </c>
       <c r="H88">
+        <f t="shared" si="16"/>
+        <v>1.2638256400000001E-2</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="17"/>
+        <v>6.3191282000000003E-3</v>
+      </c>
+      <c r="K88" s="27">
+        <v>2016</v>
+      </c>
+      <c r="L88" s="38">
+        <f t="shared" si="19"/>
+        <v>1.148925400073296</v>
+      </c>
+      <c r="M88" s="33">
         <f t="shared" si="18"/>
-        <v>1.2638256400000001E-2</v>
-      </c>
-      <c r="I88">
-        <f t="shared" si="19"/>
-        <v>6.3191282000000003E-3</v>
-      </c>
-      <c r="K88" s="28">
-        <v>2016</v>
-      </c>
-      <c r="L88" s="38">
-        <f t="shared" si="21"/>
-        <v>1.148925400073296</v>
-      </c>
-      <c r="M88" s="36">
-        <f t="shared" si="20"/>
         <v>0.27485927490477063</v>
       </c>
     </row>
@@ -9812,22 +9821,22 @@
         <v>2018</v>
       </c>
       <c r="H89">
+        <f t="shared" si="16"/>
+        <v>1.2566410000000002E-2</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="17"/>
+        <v>6.2832050000000009E-3</v>
+      </c>
+      <c r="K89" s="27">
+        <v>2017</v>
+      </c>
+      <c r="L89" s="38">
+        <f t="shared" si="19"/>
+        <v>0.77669619228149478</v>
+      </c>
+      <c r="M89" s="33">
         <f t="shared" si="18"/>
-        <v>1.2566410000000002E-2</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="19"/>
-        <v>6.2832050000000009E-3</v>
-      </c>
-      <c r="K89" s="28">
-        <v>2017</v>
-      </c>
-      <c r="L89" s="38">
-        <f t="shared" si="21"/>
-        <v>0.77669619228149478</v>
-      </c>
-      <c r="M89" s="36">
-        <f t="shared" si="20"/>
         <v>0.18581028169293567</v>
       </c>
     </row>
@@ -9854,22 +9863,22 @@
         <v>2019</v>
       </c>
       <c r="H90">
+        <f t="shared" si="16"/>
+        <v>1.11218116E-2</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="17"/>
+        <v>5.5609057999999999E-3</v>
+      </c>
+      <c r="K90" s="27">
+        <v>2018</v>
+      </c>
+      <c r="L90" s="38">
+        <f t="shared" si="19"/>
+        <v>0.31225287295566323</v>
+      </c>
+      <c r="M90" s="33">
         <f t="shared" si="18"/>
-        <v>1.11218116E-2</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="19"/>
-        <v>5.5609057999999999E-3</v>
-      </c>
-      <c r="K90" s="28">
-        <v>2018</v>
-      </c>
-      <c r="L90" s="38">
-        <f t="shared" si="21"/>
-        <v>0.31225287295566323</v>
-      </c>
-      <c r="M90" s="36">
-        <f t="shared" si="20"/>
         <v>7.4700757979630161E-2</v>
       </c>
     </row>
@@ -9896,22 +9905,22 @@
         <v>2020</v>
       </c>
       <c r="H91">
+        <f t="shared" si="16"/>
+        <v>1.04530176E-2</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="17"/>
+        <v>5.2265087999999998E-3</v>
+      </c>
+      <c r="K91" s="27">
+        <v>2019</v>
+      </c>
+      <c r="L91" s="38">
+        <f t="shared" si="19"/>
+        <v>0.55421962908814715</v>
+      </c>
+      <c r="M91" s="33">
         <f t="shared" si="18"/>
-        <v>1.04530176E-2</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="19"/>
-        <v>5.2265087999999998E-3</v>
-      </c>
-      <c r="K91" s="28">
-        <v>2019</v>
-      </c>
-      <c r="L91" s="38">
-        <f t="shared" si="21"/>
-        <v>0.55421962908814715</v>
-      </c>
-      <c r="M91" s="36">
-        <f t="shared" si="20"/>
         <v>0.13258685496851313</v>
       </c>
     </row>
@@ -9931,15 +9940,15 @@
       <c r="E92">
         <v>0.27187</v>
       </c>
-      <c r="K92" s="30">
+      <c r="K92" s="28">
         <v>2020</v>
       </c>
-      <c r="L92" s="31">
-        <f t="shared" si="21"/>
+      <c r="L92" s="37">
+        <f t="shared" si="19"/>
         <v>0.92442937344482978</v>
       </c>
-      <c r="M92" s="37">
-        <f t="shared" si="20"/>
+      <c r="M92" s="34">
+        <f t="shared" si="18"/>
         <v>0.22115272868848379</v>
       </c>
     </row>
@@ -10038,8 +10047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2DBA19-5AF2-41C9-920C-E4F4CE48DF6B}">
   <dimension ref="A1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView topLeftCell="E33" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10048,7 +10057,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10087,13 +10096,13 @@
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="25"/>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="N6" s="30" t="s">
         <v>64</v>
       </c>
     </row>
@@ -10127,18 +10136,18 @@
         <f t="shared" ref="I7:I18" si="0">H7/2</f>
         <v>1.3645088E-3</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="27">
         <v>2006</v>
       </c>
-      <c r="L7" s="29">
-        <f>(B7+I7)</f>
-        <v>-0.16197549120000002</v>
-      </c>
-      <c r="M7" s="36">
+      <c r="L7" s="36">
+        <f>EXP(B7+I7)</f>
+        <v>0.85046204808905101</v>
+      </c>
+      <c r="M7" s="33">
         <f>L7/AVERAGE($L$7:$L$21)</f>
-        <v>-0.22255980611592036</v>
-      </c>
-      <c r="N7" s="34">
+        <v>0.36438776132468909</v>
+      </c>
+      <c r="N7" s="31">
         <v>1.21</v>
       </c>
     </row>
@@ -10172,18 +10181,18 @@
         <f t="shared" si="0"/>
         <v>2.1040584499999997E-3</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="27">
         <v>2007</v>
       </c>
-      <c r="L8" s="29">
-        <f>($B$7+$I$7+B8+I8)</f>
-        <v>0.24757856724999996</v>
-      </c>
-      <c r="M8" s="36">
+      <c r="L8" s="36">
+        <f>EXP($B$7+$I$7+B8+I8)</f>
+        <v>1.2809199967920037</v>
+      </c>
+      <c r="M8" s="33">
         <f t="shared" ref="M8:M20" si="2">L8/AVERAGE($L$7:$L$21)</f>
-        <v>0.34018132939372331</v>
-      </c>
-      <c r="N8" s="34">
+        <v>0.5488211627030688</v>
+      </c>
+      <c r="N8" s="31">
         <v>1.25</v>
       </c>
     </row>
@@ -10217,18 +10226,18 @@
         <f t="shared" si="0"/>
         <v>2.0756124500000001E-3</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="27">
         <v>2008</v>
       </c>
-      <c r="L9" s="29">
-        <f t="shared" ref="L9:L21" si="3">($B$7+$I$7+B9+I9)</f>
-        <v>0.26696012125000002</v>
-      </c>
-      <c r="M9" s="36">
+      <c r="L9" s="36">
+        <f t="shared" ref="L9:L21" si="3">EXP($B$7+$I$7+B9+I9)</f>
+        <v>1.3059883641086991</v>
+      </c>
+      <c r="M9" s="33">
         <f t="shared" si="2"/>
-        <v>0.36681224045630545</v>
-      </c>
-      <c r="N9" s="34">
+        <v>0.55956191976227054</v>
+      </c>
+      <c r="N9" s="31">
         <v>1.26</v>
       </c>
     </row>
@@ -10262,18 +10271,18 @@
         <f t="shared" si="0"/>
         <v>1.6843208000000001E-3</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="27">
         <v>2009</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="36">
         <f t="shared" si="3"/>
-        <v>0.2243288296</v>
-      </c>
-      <c r="M10" s="36">
+        <v>1.2514824762571373</v>
+      </c>
+      <c r="M10" s="33">
         <f t="shared" si="2"/>
-        <v>0.3082354030977455</v>
-      </c>
-      <c r="N10" s="34">
+        <v>0.53620840446094398</v>
+      </c>
+      <c r="N10" s="31">
         <v>1.75</v>
       </c>
     </row>
@@ -10307,18 +10316,18 @@
         <f t="shared" si="0"/>
         <v>1.4927648E-3</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="27">
         <v>2010</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="36">
         <f t="shared" si="3"/>
-        <v>0.45269727359999995</v>
-      </c>
-      <c r="M11" s="36">
+        <v>1.5725480626363486</v>
+      </c>
+      <c r="M11" s="33">
         <f t="shared" si="2"/>
-        <v>0.62202137308055727</v>
-      </c>
-      <c r="N11" s="34">
+        <v>0.67377170963369781</v>
+      </c>
+      <c r="N11" s="31">
         <v>2.27</v>
       </c>
     </row>
@@ -10349,18 +10358,18 @@
         <f t="shared" si="0"/>
         <v>1.8568418E-3</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="27">
         <v>2011</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="36">
         <f t="shared" si="3"/>
-        <v>-6.7398649400000024E-2</v>
-      </c>
-      <c r="M12" s="36">
+        <v>0.93482246063224628</v>
+      </c>
+      <c r="M12" s="33">
         <f t="shared" si="2"/>
-        <v>-9.2608025027794416E-2</v>
-      </c>
-      <c r="N12" s="34">
+        <v>0.40053270387693263</v>
+      </c>
+      <c r="N12" s="31">
         <v>1.31</v>
       </c>
     </row>
@@ -10394,18 +10403,18 @@
         <f t="shared" si="0"/>
         <v>1.5384604499999999E-3</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="27">
         <v>2012</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="36">
         <f t="shared" si="3"/>
-        <v>1.1774729692499999</v>
-      </c>
-      <c r="M13" s="36">
+        <v>3.2461606814884179</v>
+      </c>
+      <c r="M13" s="33">
         <f t="shared" si="2"/>
-        <v>1.6178877051185445</v>
-      </c>
-      <c r="N13" s="34">
+        <v>1.3908453954948681</v>
+      </c>
+      <c r="N13" s="31">
         <v>3.18</v>
       </c>
     </row>
@@ -10439,18 +10448,18 @@
         <f t="shared" si="0"/>
         <v>1.4504498E-3</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="27">
         <v>2013</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="36">
         <f t="shared" si="3"/>
-        <v>1.4580549586</v>
-      </c>
-      <c r="M14" s="36">
+        <v>4.2975923986405551</v>
+      </c>
+      <c r="M14" s="33">
         <f t="shared" si="2"/>
-        <v>2.0034168533046079</v>
-      </c>
-      <c r="N14" s="34">
+        <v>1.8413403358155018</v>
+      </c>
+      <c r="N14" s="31">
         <v>4.09</v>
       </c>
     </row>
@@ -10484,18 +10493,18 @@
         <f t="shared" si="0"/>
         <v>1.4553012499999999E-3</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="27">
         <v>2014</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="36">
         <f t="shared" si="3"/>
-        <v>1.4212398100500001</v>
-      </c>
-      <c r="M15" s="36">
+        <v>4.1422528647095564</v>
+      </c>
+      <c r="M15" s="33">
         <f t="shared" si="2"/>
-        <v>1.9528315933821687</v>
-      </c>
-      <c r="N15" s="34">
+        <v>1.7747837797157637</v>
+      </c>
+      <c r="N15" s="31">
         <v>4.16</v>
       </c>
     </row>
@@ -10529,18 +10538,18 @@
         <f t="shared" si="0"/>
         <v>1.5814688E-3</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="27">
         <v>2015</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="36">
         <f t="shared" si="3"/>
-        <v>1.0063159775999999</v>
-      </c>
-      <c r="M16" s="36">
+        <v>2.7355047681947258</v>
+      </c>
+      <c r="M16" s="33">
         <f t="shared" si="2"/>
-        <v>1.3827122066848148</v>
-      </c>
-      <c r="N16" s="34">
+        <v>1.1720504881025759</v>
+      </c>
+      <c r="N16" s="31">
         <v>2.86</v>
       </c>
     </row>
@@ -10574,18 +10583,18 @@
         <f t="shared" si="0"/>
         <v>1.6091464500000003E-3</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="27">
         <v>2016</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="36">
         <f t="shared" si="3"/>
-        <v>1.01790365525</v>
-      </c>
-      <c r="M17" s="36">
+        <v>2.7673872810501194</v>
+      </c>
+      <c r="M17" s="33">
         <f t="shared" si="2"/>
-        <v>1.3986340678998146</v>
-      </c>
-      <c r="N17" s="34">
+        <v>1.1857108242820524</v>
+      </c>
+      <c r="N17" s="31">
         <v>2.76</v>
       </c>
     </row>
@@ -10619,18 +10628,18 @@
         <f t="shared" si="0"/>
         <v>1.5618460500000002E-3</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="27">
         <v>2017</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="36">
         <f t="shared" si="3"/>
-        <v>0.98599635484999992</v>
-      </c>
-      <c r="M18" s="36">
+        <v>2.6804812648837357</v>
+      </c>
+      <c r="M18" s="33">
         <f t="shared" si="2"/>
-        <v>1.3547923574157381</v>
-      </c>
-      <c r="N18" s="34">
+        <v>1.148475196016604</v>
+      </c>
+      <c r="N18" s="31">
         <v>3.09</v>
       </c>
     </row>
@@ -10664,18 +10673,18 @@
         <f t="shared" ref="I19:I21" si="4">H19/2</f>
         <v>1.6583040500000002E-3</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="27">
         <v>2018</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="36">
         <f t="shared" si="3"/>
-        <v>0.77690281285000007</v>
-      </c>
-      <c r="M19" s="36">
+        <v>2.1747262897966491</v>
+      </c>
+      <c r="M19" s="33">
         <f t="shared" si="2"/>
-        <v>1.0674907550384336</v>
-      </c>
-      <c r="N19" s="34">
+        <v>0.93178013764815526</v>
+      </c>
+      <c r="N19" s="31">
         <v>2.4</v>
       </c>
     </row>
@@ -10709,18 +10718,18 @@
         <f t="shared" si="4"/>
         <v>1.6057444499999998E-3</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="27">
         <v>2019</v>
       </c>
-      <c r="L20" s="29">
+      <c r="L20" s="36">
         <f t="shared" si="3"/>
-        <v>0.96595025324999995</v>
-      </c>
-      <c r="M20" s="36">
+        <v>2.6272830549181658</v>
+      </c>
+      <c r="M20" s="33">
         <f t="shared" si="2"/>
-        <v>1.3272483354626439</v>
-      </c>
-      <c r="N20" s="34">
+        <v>1.1256819665251865</v>
+      </c>
+      <c r="N20" s="31">
         <v>2.64</v>
       </c>
     </row>
@@ -10754,18 +10763,18 @@
         <f t="shared" si="4"/>
         <v>1.50975125E-3</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="28">
         <v>2020</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="37">
         <f t="shared" si="3"/>
-        <v>1.1447342600499999</v>
-      </c>
-      <c r="M21" s="37">
+        <v>3.1416063955763178</v>
+      </c>
+      <c r="M21" s="34">
         <f>L21/AVERAGE($L$7:$L$21)</f>
-        <v>1.5729036108086178</v>
-      </c>
-      <c r="N21" s="35">
+        <v>1.3460482146376898</v>
+      </c>
+      <c r="N21" s="32">
         <v>3.53</v>
       </c>
     </row>
@@ -10850,7 +10859,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="29" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="14"/>
@@ -10884,13 +10893,13 @@
       </c>
       <c r="J31" s="24"/>
       <c r="K31" s="25"/>
-      <c r="L31" s="26" t="s">
+      <c r="L31" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="27" t="s">
+      <c r="M31" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="N31" s="33" t="s">
+      <c r="N31" s="30" t="s">
         <v>64</v>
       </c>
     </row>
@@ -10924,18 +10933,18 @@
         <f t="shared" ref="I32:I43" si="6">H32/2</f>
         <v>8.9151304500000011E-3</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="27">
         <v>2006</v>
       </c>
-      <c r="L32" s="29">
-        <f>(B32+I32)</f>
-        <v>-2.5190748695499998</v>
-      </c>
-      <c r="M32" s="36">
+      <c r="L32" s="36">
+        <f>EXP(B32+I32)</f>
+        <v>8.0534076823686698E-2</v>
+      </c>
+      <c r="M32" s="33">
         <f>L32/AVERAGE($L$32:$L$46)</f>
-        <v>1.5418167457242424</v>
-      </c>
-      <c r="N32" s="34">
+        <v>0.29566268665885315</v>
+      </c>
+      <c r="N32" s="31">
         <v>0.218</v>
       </c>
     </row>
@@ -10969,18 +10978,18 @@
         <f t="shared" si="6"/>
         <v>1.4260227200000001E-2</v>
       </c>
-      <c r="K33" s="28">
+      <c r="K33" s="27">
         <v>2007</v>
       </c>
-      <c r="L33" s="29">
-        <f>($B$32+$I$32+B33+I33)</f>
-        <v>-2.0285746423500002</v>
-      </c>
-      <c r="M33" s="36">
+      <c r="L33" s="36">
+        <f>EXP($B$32+$I$32+B33+I33)</f>
+        <v>0.13152285471522876</v>
+      </c>
+      <c r="M33" s="33">
         <f t="shared" ref="M33:M45" si="7">L33/AVERAGE($L$32:$L$46)</f>
-        <v>1.241602777008973</v>
-      </c>
-      <c r="N33" s="34">
+        <v>0.48285647661027475</v>
+      </c>
+      <c r="N33" s="31">
         <v>0.16900000000000001</v>
       </c>
     </row>
@@ -11011,18 +11020,18 @@
         <f t="shared" si="6"/>
         <v>1.5652112450000002E-2</v>
       </c>
-      <c r="K34" s="28">
+      <c r="K34" s="27">
         <v>2008</v>
       </c>
-      <c r="L34" s="29">
-        <f t="shared" ref="L34:L46" si="8">($B$32+$I$32+B34+I34)</f>
-        <v>-2.2184427570999996</v>
-      </c>
-      <c r="M34" s="36">
+      <c r="L34" s="36">
+        <f t="shared" ref="L34:L46" si="8">EXP($B$32+$I$32+B34+I34)</f>
+        <v>0.1087783713457752</v>
+      </c>
+      <c r="M34" s="33">
         <f t="shared" si="7"/>
-        <v>1.3578128358441579</v>
-      </c>
-      <c r="N34" s="34">
+        <v>0.39935523930916778</v>
+      </c>
+      <c r="N34" s="31">
         <v>0.13900000000000001</v>
       </c>
     </row>
@@ -11056,18 +11065,18 @@
         <f t="shared" si="6"/>
         <v>8.9994528000000001E-3</v>
       </c>
-      <c r="K35" s="28">
+      <c r="K35" s="27">
         <v>2009</v>
       </c>
-      <c r="L35" s="29">
+      <c r="L35" s="36">
         <f t="shared" si="8"/>
-        <v>-2.02914541675</v>
-      </c>
-      <c r="M35" s="36">
+        <v>0.13144780625664931</v>
+      </c>
+      <c r="M35" s="33">
         <f>L35/AVERAGE($L$32:$L$46)</f>
-        <v>1.2419521233259834</v>
-      </c>
-      <c r="N35" s="34">
+        <v>0.48258095313290528</v>
+      </c>
+      <c r="N35" s="31">
         <v>0.34599999999999997</v>
       </c>
     </row>
@@ -11098,18 +11107,18 @@
         <f t="shared" si="6"/>
         <v>1.0531358450000002E-2</v>
       </c>
-      <c r="K36" s="28">
+      <c r="K36" s="27">
         <v>2010</v>
       </c>
-      <c r="L36" s="29">
+      <c r="L36" s="36">
         <f t="shared" si="8"/>
-        <v>-2.4340535110999997</v>
-      </c>
-      <c r="M36" s="36">
+        <v>8.7680696592522728E-2</v>
+      </c>
+      <c r="M36" s="33">
         <f t="shared" si="7"/>
-        <v>1.4897788504687313</v>
-      </c>
-      <c r="N36" s="34">
+        <v>0.32189988816063853</v>
+      </c>
+      <c r="N36" s="31">
         <v>0.222</v>
       </c>
     </row>
@@ -11143,18 +11152,18 @@
         <f t="shared" si="6"/>
         <v>1.2952451250000002E-2</v>
       </c>
-      <c r="K37" s="28">
+      <c r="K37" s="27">
         <v>2011</v>
       </c>
-      <c r="L37" s="29">
+      <c r="L37" s="36">
         <f t="shared" si="8"/>
-        <v>-2.8387424182999998</v>
-      </c>
-      <c r="M37" s="36">
+        <v>5.8499187232639221E-2</v>
+      </c>
+      <c r="M37" s="33">
         <f t="shared" si="7"/>
-        <v>1.7374714226395878</v>
-      </c>
-      <c r="N37" s="34">
+        <v>0.21476656276109796</v>
+      </c>
+      <c r="N37" s="31">
         <v>0.154</v>
       </c>
     </row>
@@ -11188,18 +11197,18 @@
         <f t="shared" si="6"/>
         <v>8.2689799999999987E-3</v>
       </c>
-      <c r="K38" s="28">
+      <c r="K38" s="27">
         <v>2012</v>
       </c>
-      <c r="L38" s="29">
+      <c r="L38" s="36">
         <f t="shared" si="8"/>
-        <v>-6.7495889549999952E-2</v>
-      </c>
-      <c r="M38" s="36">
+        <v>0.9347315627754833</v>
+      </c>
+      <c r="M38" s="33">
         <f t="shared" si="7"/>
-        <v>4.1311313940555462E-2</v>
-      </c>
-      <c r="N38" s="34">
+        <v>3.4316559654626011</v>
+      </c>
+      <c r="N38" s="31">
         <v>1.19</v>
       </c>
     </row>
@@ -11233,18 +11242,18 @@
         <f t="shared" si="6"/>
         <v>1.0506700800000001E-2</v>
       </c>
-      <c r="K39" s="28">
+      <c r="K39" s="27">
         <v>2013</v>
       </c>
-      <c r="L39" s="29">
+      <c r="L39" s="36">
         <f t="shared" si="8"/>
-        <v>-1.22844816875</v>
-      </c>
-      <c r="M39" s="36">
+        <v>0.29274651856577544</v>
+      </c>
+      <c r="M39" s="33">
         <f t="shared" si="7"/>
-        <v>0.75187997813315333</v>
-      </c>
-      <c r="N39" s="34">
+        <v>1.0747527705405528</v>
+      </c>
+      <c r="N39" s="31">
         <v>0.36899999999999999</v>
       </c>
     </row>
@@ -11275,18 +11284,18 @@
         <f t="shared" si="6"/>
         <v>1.5936480449999998E-2</v>
       </c>
-      <c r="K40" s="28">
+      <c r="K40" s="27">
         <v>2014</v>
       </c>
-      <c r="L40" s="29">
+      <c r="L40" s="36">
         <f t="shared" si="8"/>
-        <v>-2.2378983890999997</v>
-      </c>
-      <c r="M40" s="36">
+        <v>0.1066824739985154</v>
+      </c>
+      <c r="M40" s="33">
         <f t="shared" si="7"/>
-        <v>1.3697207864885972</v>
-      </c>
-      <c r="N40" s="34">
+        <v>0.39166062523904366</v>
+      </c>
+      <c r="N40" s="31">
         <v>0.14799999999999999</v>
       </c>
     </row>
@@ -11320,18 +11329,18 @@
         <f t="shared" si="6"/>
         <v>1.2222661249999999E-2</v>
       </c>
-      <c r="K41" s="28">
+      <c r="K41" s="27">
         <v>2015</v>
       </c>
-      <c r="L41" s="29">
+      <c r="L41" s="36">
         <f t="shared" si="8"/>
-        <v>-1.7594322082999998</v>
-      </c>
-      <c r="M41" s="36">
+        <v>0.17214257720655585</v>
+      </c>
+      <c r="M41" s="33">
         <f t="shared" si="7"/>
-        <v>1.0768723369496818</v>
-      </c>
-      <c r="N41" s="34">
+        <v>0.63198261993735028</v>
+      </c>
+      <c r="N41" s="31">
         <v>0.245</v>
       </c>
     </row>
@@ -11365,18 +11374,18 @@
         <f t="shared" si="6"/>
         <v>9.9334512499999993E-3</v>
       </c>
-      <c r="K42" s="28">
+      <c r="K42" s="27">
         <v>2016</v>
       </c>
-      <c r="L42" s="29">
+      <c r="L42" s="36">
         <f t="shared" si="8"/>
-        <v>-1.0348814182999999</v>
-      </c>
-      <c r="M42" s="36">
+        <v>0.35526850677071431</v>
+      </c>
+      <c r="M42" s="33">
         <f t="shared" si="7"/>
-        <v>0.63340614439888687</v>
-      </c>
-      <c r="N42" s="34">
+        <v>1.304288139132354</v>
+      </c>
+      <c r="N42" s="31">
         <v>0.46700000000000003</v>
       </c>
     </row>
@@ -11410,18 +11419,18 @@
         <f t="shared" si="6"/>
         <v>9.8771512500000005E-3</v>
       </c>
-      <c r="K43" s="28">
+      <c r="K43" s="27">
         <v>2017</v>
       </c>
-      <c r="L43" s="29">
+      <c r="L43" s="36">
         <f t="shared" si="8"/>
-        <v>-1.1970077182999999</v>
-      </c>
-      <c r="M43" s="36">
+        <v>0.30209681959540247</v>
+      </c>
+      <c r="M43" s="33">
         <f t="shared" si="7"/>
-        <v>0.73263663861082196</v>
-      </c>
-      <c r="N43" s="34">
+        <v>1.1090802904243526</v>
+      </c>
+      <c r="N43" s="31">
         <v>0.48199999999999998</v>
       </c>
     </row>
@@ -11455,18 +11464,18 @@
         <f t="shared" ref="I44:I45" si="10">H44/2</f>
         <v>1.2252385800000001E-2</v>
       </c>
-      <c r="K44" s="28">
+      <c r="K44" s="27">
         <v>2018</v>
       </c>
-      <c r="L44" s="29">
+      <c r="L44" s="36">
         <f t="shared" si="8"/>
-        <v>-1.8300224837499997</v>
-      </c>
-      <c r="M44" s="36">
+        <v>0.1604099611171641</v>
+      </c>
+      <c r="M44" s="33">
         <f t="shared" si="7"/>
-        <v>1.1200775906282034</v>
-      </c>
-      <c r="N44" s="34">
+        <v>0.58890896799593784</v>
+      </c>
+      <c r="N44" s="31">
         <v>0.24099999999999999</v>
       </c>
     </row>
@@ -11500,18 +11509,18 @@
         <f t="shared" si="10"/>
         <v>8.8205761999999993E-3</v>
       </c>
-      <c r="K45" s="28">
+      <c r="K45" s="27">
         <v>2019</v>
       </c>
-      <c r="L45" s="29">
+      <c r="L45" s="36">
         <f t="shared" si="8"/>
-        <v>-0.56276429334999989</v>
-      </c>
-      <c r="M45" s="36">
+        <v>0.56963225481759228</v>
+      </c>
+      <c r="M45" s="33">
         <f t="shared" si="7"/>
-        <v>0.34444367726859165</v>
-      </c>
-      <c r="N45" s="34">
+        <v>2.0912762585660429</v>
+      </c>
+      <c r="N45" s="31">
         <v>0.77600000000000002</v>
       </c>
     </row>
@@ -11545,18 +11554,18 @@
         <f>H46/2</f>
         <v>8.6671778000000001E-3</v>
       </c>
-      <c r="K46" s="30">
+      <c r="K46" s="28">
         <v>2020</v>
       </c>
-      <c r="L46" s="31">
+      <c r="L46" s="37">
         <f t="shared" si="8"/>
-        <v>-0.52154769174999971</v>
-      </c>
-      <c r="M46" s="37">
+        <v>0.59360112509802088</v>
+      </c>
+      <c r="M46" s="34">
         <f>L46/AVERAGE($L$32:$L$46)</f>
-        <v>0.31921677856983366</v>
-      </c>
-      <c r="N46" s="35">
+        <v>2.1792725560688253</v>
+      </c>
+      <c r="N46" s="32">
         <v>0.90600000000000003</v>
       </c>
     </row>
@@ -11647,7 +11656,7 @@
       <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E53" s="14"/>
@@ -11681,10 +11690,10 @@
       </c>
       <c r="J56" s="24"/>
       <c r="K56" s="25"/>
-      <c r="L56" s="26" t="s">
+      <c r="L56" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="M56" s="27" t="s">
+      <c r="M56" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N56" s="24"/>
@@ -11719,14 +11728,14 @@
         <f t="shared" ref="I57:I68" si="11">H57/2</f>
         <v>4.4490744499999998E-3</v>
       </c>
-      <c r="K57" s="28">
+      <c r="K57" s="27">
         <v>2006</v>
       </c>
-      <c r="L57" s="29">
+      <c r="L57" s="38">
         <f>EXP(B57+I57)</f>
         <v>0.84527697391665213</v>
       </c>
-      <c r="M57" s="36">
+      <c r="M57" s="33">
         <f>L57/AVERAGE($L$57:$L$71)</f>
         <v>0.33812056503325971</v>
       </c>
@@ -11761,14 +11770,14 @@
         <f t="shared" si="11"/>
         <v>6.3123848000000001E-3</v>
       </c>
-      <c r="K58" s="28">
+      <c r="K58" s="27">
         <v>2007</v>
       </c>
-      <c r="L58" s="29">
+      <c r="L58" s="38">
         <f>EXP($B$57+$I$57+B58+I58)</f>
         <v>1.274318415060075</v>
       </c>
-      <c r="M58" s="36">
+      <c r="M58" s="33">
         <f t="shared" ref="M58:M71" si="13">L58/AVERAGE($L$57:$L$71)</f>
         <v>0.50974210327286928</v>
       </c>
@@ -11803,14 +11812,14 @@
         <f t="shared" si="11"/>
         <v>6.2540927999999996E-3</v>
       </c>
-      <c r="K59" s="28">
+      <c r="K59" s="27">
         <v>2008</v>
       </c>
-      <c r="L59" s="29">
+      <c r="L59" s="38">
         <f t="shared" ref="L59:L71" si="14">EXP($B$57+$I$57+B59+I59)</f>
         <v>1.2959748180832642</v>
       </c>
-      <c r="M59" s="36">
+      <c r="M59" s="33">
         <f t="shared" si="13"/>
         <v>0.51840491493430552</v>
       </c>
@@ -11845,14 +11854,14 @@
         <f t="shared" si="11"/>
         <v>5.604228450000001E-3</v>
       </c>
-      <c r="K60" s="28">
+      <c r="K60" s="27">
         <v>2009</v>
       </c>
-      <c r="L60" s="29">
+      <c r="L60" s="38">
         <f t="shared" si="14"/>
         <v>1.3560055777571873</v>
       </c>
-      <c r="M60" s="36">
+      <c r="M60" s="33">
         <f t="shared" si="13"/>
         <v>0.54241791304813347</v>
       </c>
@@ -11887,14 +11896,14 @@
         <f t="shared" si="11"/>
         <v>5.2040402000000001E-3</v>
       </c>
-      <c r="K61" s="28">
+      <c r="K61" s="27">
         <v>2010</v>
       </c>
-      <c r="L61" s="29">
+      <c r="L61" s="38">
         <f t="shared" si="14"/>
         <v>1.8468530094598747</v>
       </c>
-      <c r="M61" s="36">
+      <c r="M61" s="33">
         <f t="shared" si="13"/>
         <v>0.7387625622859133</v>
       </c>
@@ -11926,14 +11935,14 @@
         <f t="shared" si="11"/>
         <v>5.6903112E-3</v>
       </c>
-      <c r="K62" s="28">
+      <c r="K62" s="27">
         <v>2011</v>
       </c>
-      <c r="L62" s="29">
+      <c r="L62" s="38">
         <f t="shared" si="14"/>
         <v>0.97498751387338378</v>
       </c>
-      <c r="M62" s="36">
+      <c r="M62" s="33">
         <f t="shared" si="13"/>
         <v>0.39000628109354823</v>
       </c>
@@ -11968,14 +11977,14 @@
         <f t="shared" si="11"/>
         <v>5.7566450000000003E-3</v>
       </c>
-      <c r="K63" s="28">
+      <c r="K63" s="27">
         <v>2012</v>
       </c>
-      <c r="L63" s="29">
+      <c r="L63" s="38">
         <f t="shared" si="14"/>
         <v>2.996262622279652</v>
       </c>
-      <c r="M63" s="36">
+      <c r="M63" s="33">
         <f t="shared" si="13"/>
         <v>1.1985397001162463</v>
       </c>
@@ -12010,14 +12019,14 @@
         <f t="shared" si="11"/>
         <v>5.5799047999999995E-3</v>
       </c>
-      <c r="K64" s="28">
+      <c r="K64" s="27">
         <v>2013</v>
       </c>
-      <c r="L64" s="29">
+      <c r="L64" s="38">
         <f t="shared" si="14"/>
         <v>4.6167868644626706</v>
       </c>
-      <c r="M64" s="36">
+      <c r="M64" s="33">
         <f t="shared" si="13"/>
         <v>1.8467681380424943</v>
       </c>
@@ -12052,14 +12061,14 @@
         <f t="shared" si="11"/>
         <v>5.604228450000001E-3</v>
       </c>
-      <c r="K65" s="28">
+      <c r="K65" s="27">
         <v>2014</v>
       </c>
-      <c r="L65" s="29">
+      <c r="L65" s="38">
         <f t="shared" si="14"/>
         <v>5.0528543574093927</v>
       </c>
-      <c r="M65" s="36">
+      <c r="M65" s="33">
         <f t="shared" si="13"/>
         <v>2.0212001782583693</v>
       </c>
@@ -12094,14 +12103,14 @@
         <f t="shared" si="11"/>
         <v>5.6572884500000007E-3</v>
       </c>
-      <c r="K66" s="28">
+      <c r="K66" s="27">
         <v>2015</v>
       </c>
-      <c r="L66" s="29">
+      <c r="L66" s="38">
         <f t="shared" si="14"/>
         <v>3.4527684650943073</v>
       </c>
-      <c r="M66" s="36">
+      <c r="M66" s="33">
         <f t="shared" si="13"/>
         <v>1.3811473166449033</v>
       </c>
@@ -12136,14 +12145,14 @@
         <f t="shared" si="11"/>
         <v>5.8319999999999995E-3</v>
       </c>
-      <c r="K67" s="28">
+      <c r="K67" s="27">
         <v>2016</v>
       </c>
-      <c r="L67" s="29">
+      <c r="L67" s="38">
         <f t="shared" si="14"/>
         <v>2.8118737454448515</v>
       </c>
-      <c r="M67" s="36">
+      <c r="M67" s="33">
         <f t="shared" si="13"/>
         <v>1.1247820169602178</v>
       </c>
@@ -12178,14 +12187,14 @@
         <f t="shared" si="11"/>
         <v>5.7212904499999995E-3</v>
       </c>
-      <c r="K68" s="28">
+      <c r="K68" s="27">
         <v>2017</v>
       </c>
-      <c r="L68" s="29">
+      <c r="L68" s="38">
         <f t="shared" si="14"/>
         <v>2.8886242909607867</v>
       </c>
-      <c r="M68" s="36">
+      <c r="M68" s="33">
         <f t="shared" si="13"/>
         <v>1.1554831227719773</v>
       </c>
@@ -12220,14 +12229,14 @@
         <f t="shared" ref="I69:I70" si="15">H69/2</f>
         <v>5.8007220500000001E-3</v>
       </c>
-      <c r="K69" s="28">
+      <c r="K69" s="27">
         <v>2018</v>
       </c>
-      <c r="L69" s="29">
+      <c r="L69" s="38">
         <f t="shared" si="14"/>
         <v>2.2108781653720939</v>
       </c>
-      <c r="M69" s="36">
+      <c r="M69" s="33">
         <f t="shared" si="13"/>
         <v>0.88437683453213278</v>
       </c>
@@ -12262,14 +12271,14 @@
         <f t="shared" si="15"/>
         <v>5.7266402000000008E-3</v>
       </c>
-      <c r="K70" s="28">
+      <c r="K70" s="27">
         <v>2019</v>
       </c>
-      <c r="L70" s="29">
+      <c r="L70" s="38">
         <f t="shared" si="14"/>
         <v>2.7412820560909119</v>
       </c>
-      <c r="M70" s="36">
+      <c r="M70" s="33">
         <f t="shared" si="13"/>
         <v>1.0965445248392507</v>
       </c>
@@ -12304,14 +12313,14 @@
         <f>H71/2</f>
         <v>5.6849784500000002E-3</v>
       </c>
-      <c r="K71" s="30">
+      <c r="K71" s="28">
         <v>2020</v>
       </c>
-      <c r="L71" s="31">
+      <c r="L71" s="37">
         <f t="shared" si="14"/>
         <v>3.1341689552540397</v>
       </c>
-      <c r="M71" s="37">
+      <c r="M71" s="34">
         <f t="shared" si="13"/>
         <v>1.2537038281663766</v>
       </c>
@@ -12394,7 +12403,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="29" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12427,10 +12436,10 @@
       </c>
       <c r="J80" s="24"/>
       <c r="K80" s="25"/>
-      <c r="L80" s="26" t="s">
+      <c r="L80" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="M80" s="27" t="s">
+      <c r="M80" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N80" s="24"/>
@@ -12465,14 +12474,14 @@
         <f>H81/2</f>
         <v>1.3706712449999998E-2</v>
       </c>
-      <c r="K81" s="28">
+      <c r="K81" s="27">
         <v>2006</v>
       </c>
-      <c r="L81" s="29">
+      <c r="L81" s="38">
         <f>EXP(B81+I81)</f>
         <v>8.8908877011474111E-2</v>
       </c>
-      <c r="M81" s="36">
+      <c r="M81" s="33">
         <f>L81/AVERAGE($L$81:$L$95)</f>
         <v>0.31124411355755044</v>
       </c>
@@ -12507,14 +12516,14 @@
         <f t="shared" ref="I82:I95" si="17">H82/2</f>
         <v>2.0228649800000002E-2</v>
       </c>
-      <c r="K82" s="28">
+      <c r="K82" s="27">
         <v>2007</v>
       </c>
-      <c r="L82" s="29">
+      <c r="L82" s="38">
         <f>EXP($B$81+$I$81+B82+I82)</f>
         <v>0.14871781350770713</v>
       </c>
-      <c r="M82" s="36">
+      <c r="M82" s="33">
         <f t="shared" ref="M82:M95" si="18">L82/AVERAGE($L$81:$L$95)</f>
         <v>0.52061780095872512</v>
       </c>
@@ -12546,14 +12555,14 @@
         <f t="shared" si="17"/>
         <v>2.2052100049999999E-2</v>
       </c>
-      <c r="K83" s="28">
+      <c r="K83" s="27">
         <v>2008</v>
       </c>
-      <c r="L83" s="29">
+      <c r="L83" s="38">
         <f t="shared" ref="L83:L95" si="19">EXP($B$81+$I$81+B83+I83)</f>
         <v>0.11538035336948967</v>
       </c>
-      <c r="M83" s="36">
+      <c r="M83" s="33">
         <f t="shared" si="18"/>
         <v>0.40391305135716865</v>
       </c>
@@ -12588,14 +12597,14 @@
         <f t="shared" si="17"/>
         <v>1.5190245000000002E-2</v>
       </c>
-      <c r="K84" s="28">
+      <c r="K84" s="27">
         <v>2009</v>
       </c>
-      <c r="L84" s="29">
+      <c r="L84" s="38">
         <f t="shared" si="19"/>
         <v>0.14796891773919907</v>
       </c>
-      <c r="M84" s="36">
+      <c r="M84" s="33">
         <f t="shared" si="18"/>
         <v>0.51799613473763217</v>
       </c>
@@ -12627,14 +12636,14 @@
         <f t="shared" si="17"/>
         <v>1.6585668449999997E-2</v>
       </c>
-      <c r="K85" s="28">
+      <c r="K85" s="27">
         <v>2010</v>
       </c>
-      <c r="L85" s="29">
+      <c r="L85" s="38">
         <f t="shared" si="19"/>
         <v>9.8222730482353901E-2</v>
       </c>
-      <c r="M85" s="36">
+      <c r="M85" s="33">
         <f t="shared" si="18"/>
         <v>0.34384920502636718</v>
       </c>
@@ -12669,14 +12678,14 @@
         <f t="shared" si="17"/>
         <v>1.9284516050000002E-2</v>
       </c>
-      <c r="K86" s="28">
+      <c r="K86" s="27">
         <v>2011</v>
       </c>
-      <c r="L86" s="29">
+      <c r="L86" s="38">
         <f t="shared" si="19"/>
         <v>6.3317167916094208E-2</v>
       </c>
-      <c r="M86" s="36">
+      <c r="M86" s="33">
         <f t="shared" si="18"/>
         <v>0.22165498500758277</v>
       </c>
@@ -12711,14 +12720,14 @@
         <f t="shared" si="17"/>
         <v>1.4627340799999999E-2</v>
       </c>
-      <c r="K87" s="28">
+      <c r="K87" s="27">
         <v>2012</v>
       </c>
-      <c r="L87" s="29">
+      <c r="L87" s="38">
         <f t="shared" si="19"/>
         <v>0.85905189397037818</v>
       </c>
-      <c r="M87" s="36">
+      <c r="M87" s="33">
         <f t="shared" si="18"/>
         <v>3.0072907703495022</v>
       </c>
@@ -12753,14 +12762,14 @@
         <f t="shared" si="17"/>
         <v>1.6514713800000001E-2</v>
       </c>
-      <c r="K88" s="28">
+      <c r="K88" s="27">
         <v>2013</v>
       </c>
-      <c r="L88" s="29">
+      <c r="L88" s="38">
         <f t="shared" si="19"/>
         <v>0.33952130708882516</v>
       </c>
-      <c r="M88" s="36">
+      <c r="M88" s="33">
         <f t="shared" si="18"/>
         <v>1.1885653245302437</v>
       </c>
@@ -12792,14 +12801,14 @@
         <f t="shared" si="17"/>
         <v>2.1984948049999998E-2</v>
       </c>
-      <c r="K89" s="28">
+      <c r="K89" s="27">
         <v>2014</v>
       </c>
-      <c r="L89" s="29">
+      <c r="L89" s="38">
         <f t="shared" si="19"/>
         <v>0.12326382037323932</v>
       </c>
-      <c r="M89" s="36">
+      <c r="M89" s="33">
         <f t="shared" si="18"/>
         <v>0.4315107759243747</v>
       </c>
@@ -12834,14 +12843,14 @@
         <f t="shared" si="17"/>
         <v>1.7758585799999997E-2</v>
       </c>
-      <c r="K90" s="28">
+      <c r="K90" s="27">
         <v>2015</v>
       </c>
-      <c r="L90" s="29">
+      <c r="L90" s="38">
         <f t="shared" si="19"/>
         <v>0.22271224949803139</v>
       </c>
-      <c r="M90" s="36">
+      <c r="M90" s="33">
         <f t="shared" si="18"/>
         <v>0.77965079532471193</v>
       </c>
@@ -12876,14 +12885,14 @@
         <f t="shared" si="17"/>
         <v>1.6523802050000001E-2</v>
       </c>
-      <c r="K91" s="28">
+      <c r="K91" s="27">
         <v>2016</v>
       </c>
-      <c r="L91" s="29">
+      <c r="L91" s="38">
         <f t="shared" si="19"/>
         <v>0.35919513540677045</v>
       </c>
-      <c r="M91" s="36">
+      <c r="M91" s="33">
         <f t="shared" si="18"/>
         <v>1.2574376740742836</v>
       </c>
@@ -12918,14 +12927,14 @@
         <f t="shared" si="17"/>
         <v>1.6033032450000002E-2</v>
       </c>
-      <c r="K92" s="28">
+      <c r="K92" s="27">
         <v>2017</v>
       </c>
-      <c r="L92" s="29">
+      <c r="L92" s="38">
         <f t="shared" si="19"/>
         <v>0.3501546884630693</v>
       </c>
-      <c r="M92" s="36">
+      <c r="M92" s="33">
         <f t="shared" si="18"/>
         <v>1.2257896993192634</v>
       </c>
@@ -12960,14 +12969,14 @@
         <f t="shared" si="17"/>
         <v>1.8578208799999999E-2</v>
       </c>
-      <c r="K93" s="28">
+      <c r="K93" s="27">
         <v>2018</v>
       </c>
-      <c r="L93" s="29">
+      <c r="L93" s="38">
         <f t="shared" si="19"/>
         <v>0.17623004232267206</v>
       </c>
-      <c r="M93" s="36">
+      <c r="M93" s="33">
         <f t="shared" si="18"/>
         <v>0.61693011034039869</v>
       </c>
@@ -13002,14 +13011,14 @@
         <f t="shared" si="17"/>
         <v>1.511191125E-2</v>
       </c>
-      <c r="K94" s="28">
+      <c r="K94" s="27">
         <v>2019</v>
       </c>
-      <c r="L94" s="29">
+      <c r="L94" s="38">
         <f t="shared" si="19"/>
         <v>0.56511197801272917</v>
       </c>
-      <c r="M94" s="36">
+      <c r="M94" s="33">
         <f t="shared" si="18"/>
         <v>1.9782926358931141</v>
       </c>
@@ -13044,14 +13053,14 @@
         <f t="shared" si="17"/>
         <v>1.4936832799999999E-2</v>
       </c>
-      <c r="K95" s="30">
+      <c r="K95" s="28">
         <v>2020</v>
       </c>
-      <c r="L95" s="31">
+      <c r="L95" s="37">
         <f t="shared" si="19"/>
         <v>0.62708921816369867</v>
       </c>
-      <c r="M95" s="37">
+      <c r="M95" s="34">
         <f t="shared" si="18"/>
         <v>2.1952569235990813</v>
       </c>

--- a/CPUE/CPUE_MODELOS.xlsx
+++ b/CPUE/CPUE_MODELOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macristina.perez\Documents\GitHub\BSB_PP\CPUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4AE5D4-B208-480A-8C0F-F54C5A34005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AC2BAA-29F7-4250-8D9C-911A34E27A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="69">
   <si>
     <t>Df</t>
   </si>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t>Mean value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overdispersion </t>
+  </si>
+  <si>
+    <t>overdispersion</t>
+  </si>
+  <si>
+    <t>POISSON MODELS</t>
+  </si>
+  <si>
+    <t>NEGATIVE BINOMIAL MODELS</t>
   </si>
 </sst>
 </file>
@@ -555,16 +567,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6179,10 +6191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A4C57B-FB27-4568-9744-4C91D1A6C511}">
-  <dimension ref="C1:P31"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6191,565 +6203,590 @@
     <col min="6" max="6" width="17.453125" customWidth="1"/>
     <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.1796875" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D3" s="1" t="s">
+      <c r="L3" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
         <v>1861</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H4" s="2">
         <v>31989</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D4" s="3" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>11</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>4142.5</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <v>1850</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H5" s="2">
         <v>27846</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="13">
-        <f>(F4/$H$3)*100</f>
-        <v>12.949763981368594</v>
-      </c>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3667.3</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1846</v>
-      </c>
-      <c r="H5" s="2">
-        <v>24179</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="13">
-        <f t="shared" ref="J5:J6" si="0">(F5/$H$3)*100</f>
-        <v>11.464253337084623</v>
+        <f>(F5/$H$4)*100</f>
+        <v>12.949763981368594</v>
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2">
-        <v>172.2</v>
+        <v>3667.3</v>
       </c>
       <c r="G6" s="2">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="H6" s="2">
-        <v>24007</v>
+        <v>24179</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="13">
+        <f t="shared" ref="J6:J7" si="0">(F6/$H$4)*100</f>
+        <v>11.464253337084623</v>
+      </c>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>172.2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1845</v>
+      </c>
+      <c r="H7" s="2">
+        <v>24007</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="13">
         <f t="shared" si="0"/>
         <v>0.53831004407765171</v>
       </c>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="21">
-        <f>SUM(J4:J6)</f>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="21">
+        <f>SUM(J5:J7)</f>
         <v>24.95232736253087</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K8" s="21">
         <v>37379</v>
       </c>
-    </row>
-    <row r="8" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C8" s="8" t="s">
+      <c r="L8" s="1">
+        <v>16.649999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
         <v>1861</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10" s="2">
         <v>15472.3</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D10" s="3" t="s">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>11</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>3928.6</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>1850</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H11" s="2">
         <v>11543.7</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="13">
-        <f>(F10/$H$9)*100</f>
-        <v>25.391182952760737</v>
-      </c>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1878</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1846</v>
-      </c>
-      <c r="H11" s="2">
-        <v>9665.7000000000007</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="13">
-        <f t="shared" ref="J11:J12" si="1">(F11/$H$9)*100</f>
-        <v>12.137820492105247</v>
+        <f>(F11/$H$10)*100</f>
+        <v>25.391182952760737</v>
       </c>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2">
-        <v>131.4</v>
+        <v>1878</v>
       </c>
       <c r="G12" s="2">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="H12" s="2">
-        <v>9534.2999999999993</v>
+        <v>9665.7000000000007</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="13">
+        <f t="shared" ref="J12:J13" si="1">(F12/$H$10)*100</f>
+        <v>12.137820492105247</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>131.4</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1845</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9534.2999999999993</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="13">
         <f t="shared" si="1"/>
         <v>0.84925964465528725</v>
       </c>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="21">
-        <f>SUM(J10:J12)</f>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="21">
+        <f>SUM(J11:J13)</f>
         <v>38.378263089521269</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K14" s="23">
         <v>15254</v>
       </c>
-    </row>
-    <row r="15" spans="3:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="3:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="8" t="s">
+      <c r="L14" s="1">
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K18" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="1" t="s">
+    <row r="19" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
         <v>1861</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H19" s="2">
         <v>7671</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="2">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2">
-        <v>905.7</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1850</v>
-      </c>
-      <c r="H19" s="2">
-        <v>6765</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="13">
-        <f>(F19/$H$18)*100</f>
-        <v>11.806804849432929</v>
-      </c>
-      <c r="K19" s="13"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D20" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E20" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F20" s="2">
-        <v>603.83000000000004</v>
+        <v>905.7</v>
       </c>
       <c r="G20" s="2">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="H20" s="2">
-        <v>6161</v>
+        <v>6765</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J20" s="13">
-        <f>(F20/$H$18)*100</f>
-        <v>7.8715943162560293</v>
+        <f>(F20/$H$19)*100</f>
+        <v>11.806804849432929</v>
       </c>
       <c r="K20" s="13"/>
-      <c r="P20" s="14"/>
-    </row>
-    <row r="21" spans="3:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F21" s="2">
-        <v>49.65</v>
+        <v>603.83000000000004</v>
       </c>
       <c r="G21" s="2">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="H21" s="2">
-        <v>6112</v>
+        <v>6161</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J21" s="13">
-        <f>(F21/$H$18)*100</f>
+        <f>(F21/$H$19)*100</f>
+        <v>7.8715943162560293</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" spans="3:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>49.65</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1845</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6112</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="13">
+        <f>(F22/$H$19)*100</f>
         <v>0.6472428627297615</v>
       </c>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="3:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="21">
-        <f>SUM(J19:J21)</f>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="3:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="21">
+        <f>SUM(J20:J22)</f>
         <v>20.32564202841872</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K23" s="21">
         <v>26301</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="8" t="s">
+      <c r="L23" s="1">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
         <v>1861</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H25" s="2">
         <v>7204</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="2">
-        <v>11</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1699</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1850</v>
-      </c>
-      <c r="H25" s="2">
-        <v>5505</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="13">
-        <f>(F25/$H$24)*100</f>
-        <v>23.584119933370353</v>
-      </c>
-      <c r="K25" s="13"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D26" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E26" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F26" s="2">
-        <v>572</v>
+        <v>1699</v>
       </c>
       <c r="G26" s="2">
-        <v>1846</v>
+        <v>1850</v>
       </c>
       <c r="H26" s="2">
-        <v>4933</v>
+        <v>5505</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J26" s="13">
-        <f>(F26/$H$24)*100</f>
-        <v>7.9400333148250972</v>
+        <f>(F26/$H$25)*100</f>
+        <v>23.584119933370353</v>
       </c>
       <c r="K26" s="13"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="16"/>
+      <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="3:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D27" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" s="2">
-        <v>103.28</v>
+        <v>572</v>
       </c>
       <c r="G27" s="2">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="H27" s="2">
-        <v>4829</v>
+        <v>4933</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J27" s="13">
-        <f>(F27/$H$24)*100</f>
-        <v>1.43364797334814</v>
+        <f>(F27/$H$25)*100</f>
+        <v>7.9400333148250972</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="M27" s="16"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="21">
-        <f>SUM(J25:J27)</f>
+    <row r="28" spans="3:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>103.28</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1845</v>
+      </c>
+      <c r="H28" s="2">
+        <v>4829</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="13">
+        <f>(F28/$H$25)*100</f>
+        <v>1.43364797334814</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="21">
+        <f>SUM(J26:J28)</f>
         <v>32.95780122154359</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K29" s="23">
         <v>13245</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D29" s="1"/>
+      <c r="L29" s="1">
+        <v>3.59</v>
+      </c>
     </row>
     <row r="30" spans="3:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="H30" s="1"/>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="3:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="3:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6758,10 +6795,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF15E118-3537-4E94-AB7D-C8E7DEA18449}">
-  <dimension ref="C1:P31"/>
+  <dimension ref="B1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6770,570 +6807,589 @@
     <col min="6" max="6" width="17.453125" customWidth="1"/>
     <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.1796875" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B1" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D3" s="1" t="s">
+      <c r="L3" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
         <v>2096</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H4" s="2">
         <v>28762</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D4" s="3" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>14</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>2489</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <v>2082</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H5" s="2">
         <v>26273</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="13">
-        <f>(F4/$H$3)*100</f>
-        <v>8.6537792921215502</v>
-      </c>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1106</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2079</v>
-      </c>
-      <c r="H5" s="2">
-        <v>25168</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="13">
-        <f t="shared" ref="J5:J6" si="0">(F5/$H$3)*100</f>
-        <v>3.8453515054585914</v>
+        <f>(F5/$H$4)*100</f>
+        <v>8.6537792921215502</v>
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>1071</v>
+        <v>1106</v>
       </c>
       <c r="G6" s="2">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="H6" s="2">
-        <v>24096</v>
+        <v>25168</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="13">
+        <f t="shared" ref="J6:J7" si="0">(F6/$H$4)*100</f>
+        <v>3.8453515054585914</v>
+      </c>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1071</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2078</v>
+      </c>
+      <c r="H7" s="2">
+        <v>24096</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="13">
         <f t="shared" si="0"/>
         <v>3.7236631666782558</v>
       </c>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="21">
-        <f>SUM(J4:J6)</f>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="21">
+        <f>SUM(J5:J7)</f>
         <v>16.222793964258397</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K8" s="21">
         <v>35256</v>
       </c>
-    </row>
-    <row r="8" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C8" s="8" t="s">
+      <c r="L8" s="1">
+        <v>18.07</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
         <v>2096</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10" s="2">
         <v>9401</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D10" s="3" t="s">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="D11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>14</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>1295.8</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="2">
         <v>2082</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H11" s="2">
         <v>8105</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="13">
-        <f>(F10/$H$9)*100</f>
-        <v>13.783640038293798</v>
-      </c>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="3:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2">
-        <v>554.63</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2079</v>
-      </c>
-      <c r="H11" s="2">
-        <v>7551</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="13">
-        <f t="shared" ref="J11:J12" si="1">(F11/$H$9)*100</f>
-        <v>5.8996915221784914</v>
+        <f>(F11/$H$10)*100</f>
+        <v>13.783640038293798</v>
       </c>
       <c r="K11" s="13"/>
     </row>
-    <row r="12" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2">
-        <v>289.77</v>
+        <v>554.63</v>
       </c>
       <c r="G12" s="2">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="H12" s="2">
-        <v>7261</v>
+        <v>7551</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="13">
+        <f t="shared" ref="J12:J13" si="1">(F12/$H$10)*100</f>
+        <v>5.8996915221784914</v>
+      </c>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>289.77</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2078</v>
+      </c>
+      <c r="H13" s="2">
+        <v>7261</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="13">
         <f t="shared" si="1"/>
         <v>3.0823316668439524</v>
       </c>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="3:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="21">
-        <f>SUM(J10:J12)</f>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="21">
+        <f>SUM(J11:J13)</f>
         <v>22.765663227316242</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K14" s="23">
         <v>10526</v>
       </c>
-    </row>
-    <row r="14" spans="3:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D14" t="s">
+      <c r="L14" s="1">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="3:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="8" t="s">
+    <row r="16" spans="2:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H18" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K18" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="1" t="s">
+    <row r="19" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
         <v>2096</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H19" s="2">
         <v>7487</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="2">
-        <v>14</v>
-      </c>
-      <c r="F19" s="2">
-        <v>557</v>
-      </c>
-      <c r="G19" s="2">
-        <v>2082</v>
-      </c>
-      <c r="H19" s="2">
-        <v>6930</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="13">
-        <f>(F19/$H$18)*100</f>
-        <v>7.4395619073059969</v>
-      </c>
-      <c r="K19" s="13"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D20" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E20" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2">
-        <v>215</v>
+        <v>557</v>
       </c>
       <c r="G20" s="2">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="H20" s="2">
-        <v>6716</v>
+        <v>6930</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J20" s="13">
-        <f t="shared" ref="J20:J21" si="2">(F20/$H$18)*100</f>
-        <v>2.8716441832509685</v>
+        <f>(F20/$H$19)*100</f>
+        <v>7.4395619073059969</v>
       </c>
       <c r="K20" s="13"/>
-      <c r="P20" s="14"/>
-    </row>
-    <row r="21" spans="3:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2">
-        <v>313</v>
+        <v>215</v>
       </c>
       <c r="G21" s="2">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="H21" s="2">
-        <v>6402</v>
+        <v>6716</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J21" s="13">
+        <f t="shared" ref="J21:J22" si="2">(F21/$H$19)*100</f>
+        <v>2.8716441832509685</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" spans="3:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>313</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2078</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6402</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="13">
         <f t="shared" si="2"/>
         <v>4.1805796714304799</v>
       </c>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="3:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="21">
-        <f>SUM(J19:J21)</f>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="3:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="21">
+        <f>SUM(J20:J22)</f>
         <v>14.491785761987444</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K23" s="21">
         <v>24620</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="8" t="s">
+      <c r="L23" s="1">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
         <v>2096</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H25" s="2">
         <v>4738</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="2">
-        <v>14</v>
-      </c>
-      <c r="F25" s="2">
-        <v>675</v>
-      </c>
-      <c r="G25" s="2">
-        <v>2082</v>
-      </c>
-      <c r="H25" s="2">
-        <v>4062</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="13">
-        <f>(F25/$H$24)*100</f>
-        <v>14.246517517940058</v>
-      </c>
-      <c r="K25" s="13"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D26" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E26" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F26" s="2">
-        <v>213</v>
+        <v>675</v>
       </c>
       <c r="G26" s="2">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="H26" s="2">
-        <v>3850</v>
+        <v>4062</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J26" s="13">
-        <f t="shared" ref="J26:J27" si="3">(F26/$H$24)*100</f>
-        <v>4.49556775010553</v>
+        <f>(F26/$H$25)*100</f>
+        <v>14.246517517940058</v>
       </c>
       <c r="K26" s="13"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="16"/>
+      <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="3:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D27" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" s="2">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="G27" s="2">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="H27" s="2">
-        <v>3757</v>
+        <v>3850</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="J27" s="13">
+        <f t="shared" ref="J27:J28" si="3">(F27/$H$25)*100</f>
+        <v>4.49556775010553</v>
+      </c>
+      <c r="K27" s="13"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="3:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>93</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2078</v>
+      </c>
+      <c r="H28" s="2">
+        <v>3757</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="13">
         <f t="shared" si="3"/>
         <v>1.9628535246939638</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="21">
-        <f>SUM(J25:J27)</f>
+      <c r="K28" s="13"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="3:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="21">
+        <f>SUM(J26:J28)</f>
         <v>20.704938792739554</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K29" s="21">
         <v>9262</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="D29" s="1"/>
+      <c r="L29" s="1">
+        <v>3.59</v>
+      </c>
     </row>
     <row r="30" spans="3:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="3:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="H31" s="1"/>
+      <c r="D30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7345,7 +7401,7 @@
   <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8815,7 +8871,7 @@
       <c r="K56" s="27">
         <v>2008</v>
       </c>
-      <c r="L56" s="38">
+      <c r="L56" s="36">
         <f>EXP(B56+I56)</f>
         <v>2.2498726211690334</v>
       </c>
@@ -8857,7 +8913,7 @@
       <c r="K57" s="27">
         <v>2009</v>
       </c>
-      <c r="L57" s="38">
+      <c r="L57" s="36">
         <f>EXP($B$56+$I$56+B57+I57)</f>
         <v>3.1748754613382846</v>
       </c>
@@ -8899,7 +8955,7 @@
       <c r="K58" s="27">
         <v>2010</v>
       </c>
-      <c r="L58" s="38">
+      <c r="L58" s="36">
         <f t="shared" ref="L58:L60" si="10">EXP($B$56+$I$56+B58+I58)</f>
         <v>2.7505184364339637</v>
       </c>
@@ -8941,7 +8997,7 @@
       <c r="K59" s="27">
         <v>2011</v>
       </c>
-      <c r="L59" s="38">
+      <c r="L59" s="36">
         <f t="shared" si="10"/>
         <v>1.1737573372042136</v>
       </c>
@@ -8983,7 +9039,7 @@
       <c r="K60" s="27">
         <v>2012</v>
       </c>
-      <c r="L60" s="38">
+      <c r="L60" s="36">
         <f t="shared" si="10"/>
         <v>6.7374270980496984</v>
       </c>
@@ -9025,7 +9081,7 @@
       <c r="K61" s="27">
         <v>2013</v>
       </c>
-      <c r="L61" s="39"/>
+      <c r="L61" s="38"/>
       <c r="M61" s="33"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
@@ -9061,7 +9117,7 @@
       <c r="K62" s="27">
         <v>2014</v>
       </c>
-      <c r="L62" s="38">
+      <c r="L62" s="36">
         <f t="shared" ref="L62:L68" si="11">EXP($B$56+$I$56+B61+I61)</f>
         <v>5.0202217287403705</v>
       </c>
@@ -9103,7 +9159,7 @@
       <c r="K63" s="27">
         <v>2015</v>
       </c>
-      <c r="L63" s="38">
+      <c r="L63" s="36">
         <f t="shared" si="11"/>
         <v>4.717111197735985</v>
       </c>
@@ -9145,7 +9201,7 @@
       <c r="K64" s="27">
         <v>2016</v>
       </c>
-      <c r="L64" s="38">
+      <c r="L64" s="36">
         <f t="shared" si="11"/>
         <v>3.8823489651823988</v>
       </c>
@@ -9187,7 +9243,7 @@
       <c r="K65" s="27">
         <v>2017</v>
       </c>
-      <c r="L65" s="38">
+      <c r="L65" s="36">
         <f t="shared" si="11"/>
         <v>5.8123863373048987</v>
       </c>
@@ -9229,7 +9285,7 @@
       <c r="K66" s="27">
         <v>2018</v>
       </c>
-      <c r="L66" s="38">
+      <c r="L66" s="36">
         <f t="shared" si="11"/>
         <v>4.2476670629228757</v>
       </c>
@@ -9271,7 +9327,7 @@
       <c r="K67" s="27">
         <v>2019</v>
       </c>
-      <c r="L67" s="38">
+      <c r="L67" s="36">
         <f t="shared" si="11"/>
         <v>4.3089646422848977</v>
       </c>
@@ -9468,7 +9524,7 @@
       <c r="K80" s="27">
         <v>2008</v>
       </c>
-      <c r="L80" s="38">
+      <c r="L80" s="36">
         <f>EXP(B80+I80)</f>
         <v>0.3203294971980486</v>
       </c>
@@ -9510,7 +9566,7 @@
       <c r="K81" s="27">
         <v>2009</v>
       </c>
-      <c r="L81" s="38">
+      <c r="L81" s="36">
         <f>EXP($B$80+$I$80+B81+I81)</f>
         <v>0.39065708111865749</v>
       </c>
@@ -9549,7 +9605,7 @@
       <c r="K82" s="27">
         <v>2010</v>
       </c>
-      <c r="L82" s="38">
+      <c r="L82" s="36">
         <f t="shared" ref="L82:L83" si="15">EXP($B$80+$I$80+B82+I82)</f>
         <v>0.34500755275393963</v>
       </c>
@@ -9591,7 +9647,7 @@
       <c r="K83" s="27">
         <v>2011</v>
       </c>
-      <c r="L83" s="38">
+      <c r="L83" s="36">
         <f t="shared" si="15"/>
         <v>0.16385222150766598</v>
       </c>
@@ -9633,7 +9689,7 @@
       <c r="K84" s="27">
         <v>2012</v>
       </c>
-      <c r="L84" s="38">
+      <c r="L84" s="36">
         <f>EXP($B$80+$I$80+B84+I84)</f>
         <v>2.194079417100145</v>
       </c>
@@ -9672,7 +9728,7 @@
       <c r="K85" s="27">
         <v>2013</v>
       </c>
-      <c r="L85" s="38"/>
+      <c r="L85" s="36"/>
       <c r="M85" s="33"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
@@ -9708,7 +9764,7 @@
       <c r="K86" s="27">
         <v>2014</v>
       </c>
-      <c r="L86" s="38">
+      <c r="L86" s="36">
         <f>EXP($B$80+$I$80+B85+I85)</f>
         <v>0.29672362588144763</v>
       </c>
@@ -9750,7 +9806,7 @@
       <c r="K87" s="27">
         <v>2015</v>
       </c>
-      <c r="L87" s="38">
+      <c r="L87" s="36">
         <f t="shared" ref="L87:L92" si="19">EXP($B$80+$I$80+B86+I86)</f>
         <v>0.44856171259042121</v>
       </c>
@@ -9792,7 +9848,7 @@
       <c r="K88" s="27">
         <v>2016</v>
       </c>
-      <c r="L88" s="38">
+      <c r="L88" s="36">
         <f t="shared" si="19"/>
         <v>1.148925400073296</v>
       </c>
@@ -9831,7 +9887,7 @@
       <c r="K89" s="27">
         <v>2017</v>
       </c>
-      <c r="L89" s="38">
+      <c r="L89" s="36">
         <f t="shared" si="19"/>
         <v>0.77669619228149478</v>
       </c>
@@ -9873,7 +9929,7 @@
       <c r="K90" s="27">
         <v>2018</v>
       </c>
-      <c r="L90" s="38">
+      <c r="L90" s="36">
         <f t="shared" si="19"/>
         <v>0.31225287295566323</v>
       </c>
@@ -9915,7 +9971,7 @@
       <c r="K91" s="27">
         <v>2019</v>
       </c>
-      <c r="L91" s="38">
+      <c r="L91" s="36">
         <f t="shared" si="19"/>
         <v>0.55421962908814715</v>
       </c>
@@ -11731,7 +11787,7 @@
       <c r="K57" s="27">
         <v>2006</v>
       </c>
-      <c r="L57" s="38">
+      <c r="L57" s="36">
         <f>EXP(B57+I57)</f>
         <v>0.84527697391665213</v>
       </c>
@@ -11773,7 +11829,7 @@
       <c r="K58" s="27">
         <v>2007</v>
       </c>
-      <c r="L58" s="38">
+      <c r="L58" s="36">
         <f>EXP($B$57+$I$57+B58+I58)</f>
         <v>1.274318415060075</v>
       </c>
@@ -11815,7 +11871,7 @@
       <c r="K59" s="27">
         <v>2008</v>
       </c>
-      <c r="L59" s="38">
+      <c r="L59" s="36">
         <f t="shared" ref="L59:L71" si="14">EXP($B$57+$I$57+B59+I59)</f>
         <v>1.2959748180832642</v>
       </c>
@@ -11857,7 +11913,7 @@
       <c r="K60" s="27">
         <v>2009</v>
       </c>
-      <c r="L60" s="38">
+      <c r="L60" s="36">
         <f t="shared" si="14"/>
         <v>1.3560055777571873</v>
       </c>
@@ -11899,7 +11955,7 @@
       <c r="K61" s="27">
         <v>2010</v>
       </c>
-      <c r="L61" s="38">
+      <c r="L61" s="36">
         <f t="shared" si="14"/>
         <v>1.8468530094598747</v>
       </c>
@@ -11938,7 +11994,7 @@
       <c r="K62" s="27">
         <v>2011</v>
       </c>
-      <c r="L62" s="38">
+      <c r="L62" s="36">
         <f t="shared" si="14"/>
         <v>0.97498751387338378</v>
       </c>
@@ -11980,7 +12036,7 @@
       <c r="K63" s="27">
         <v>2012</v>
       </c>
-      <c r="L63" s="38">
+      <c r="L63" s="36">
         <f t="shared" si="14"/>
         <v>2.996262622279652</v>
       </c>
@@ -12022,7 +12078,7 @@
       <c r="K64" s="27">
         <v>2013</v>
       </c>
-      <c r="L64" s="38">
+      <c r="L64" s="36">
         <f t="shared" si="14"/>
         <v>4.6167868644626706</v>
       </c>
@@ -12064,7 +12120,7 @@
       <c r="K65" s="27">
         <v>2014</v>
       </c>
-      <c r="L65" s="38">
+      <c r="L65" s="36">
         <f t="shared" si="14"/>
         <v>5.0528543574093927</v>
       </c>
@@ -12106,7 +12162,7 @@
       <c r="K66" s="27">
         <v>2015</v>
       </c>
-      <c r="L66" s="38">
+      <c r="L66" s="36">
         <f t="shared" si="14"/>
         <v>3.4527684650943073</v>
       </c>
@@ -12148,7 +12204,7 @@
       <c r="K67" s="27">
         <v>2016</v>
       </c>
-      <c r="L67" s="38">
+      <c r="L67" s="36">
         <f t="shared" si="14"/>
         <v>2.8118737454448515</v>
       </c>
@@ -12190,7 +12246,7 @@
       <c r="K68" s="27">
         <v>2017</v>
       </c>
-      <c r="L68" s="38">
+      <c r="L68" s="36">
         <f t="shared" si="14"/>
         <v>2.8886242909607867</v>
       </c>
@@ -12232,7 +12288,7 @@
       <c r="K69" s="27">
         <v>2018</v>
       </c>
-      <c r="L69" s="38">
+      <c r="L69" s="36">
         <f t="shared" si="14"/>
         <v>2.2108781653720939</v>
       </c>
@@ -12274,7 +12330,7 @@
       <c r="K70" s="27">
         <v>2019</v>
       </c>
-      <c r="L70" s="38">
+      <c r="L70" s="36">
         <f t="shared" si="14"/>
         <v>2.7412820560909119</v>
       </c>
@@ -12477,7 +12533,7 @@
       <c r="K81" s="27">
         <v>2006</v>
       </c>
-      <c r="L81" s="38">
+      <c r="L81" s="36">
         <f>EXP(B81+I81)</f>
         <v>8.8908877011474111E-2</v>
       </c>
@@ -12519,7 +12575,7 @@
       <c r="K82" s="27">
         <v>2007</v>
       </c>
-      <c r="L82" s="38">
+      <c r="L82" s="36">
         <f>EXP($B$81+$I$81+B82+I82)</f>
         <v>0.14871781350770713</v>
       </c>
@@ -12558,7 +12614,7 @@
       <c r="K83" s="27">
         <v>2008</v>
       </c>
-      <c r="L83" s="38">
+      <c r="L83" s="36">
         <f t="shared" ref="L83:L95" si="19">EXP($B$81+$I$81+B83+I83)</f>
         <v>0.11538035336948967</v>
       </c>
@@ -12600,7 +12656,7 @@
       <c r="K84" s="27">
         <v>2009</v>
       </c>
-      <c r="L84" s="38">
+      <c r="L84" s="36">
         <f t="shared" si="19"/>
         <v>0.14796891773919907</v>
       </c>
@@ -12639,7 +12695,7 @@
       <c r="K85" s="27">
         <v>2010</v>
       </c>
-      <c r="L85" s="38">
+      <c r="L85" s="36">
         <f t="shared" si="19"/>
         <v>9.8222730482353901E-2</v>
       </c>
@@ -12681,7 +12737,7 @@
       <c r="K86" s="27">
         <v>2011</v>
       </c>
-      <c r="L86" s="38">
+      <c r="L86" s="36">
         <f t="shared" si="19"/>
         <v>6.3317167916094208E-2</v>
       </c>
@@ -12723,7 +12779,7 @@
       <c r="K87" s="27">
         <v>2012</v>
       </c>
-      <c r="L87" s="38">
+      <c r="L87" s="36">
         <f t="shared" si="19"/>
         <v>0.85905189397037818</v>
       </c>
@@ -12765,7 +12821,7 @@
       <c r="K88" s="27">
         <v>2013</v>
       </c>
-      <c r="L88" s="38">
+      <c r="L88" s="36">
         <f t="shared" si="19"/>
         <v>0.33952130708882516</v>
       </c>
@@ -12804,7 +12860,7 @@
       <c r="K89" s="27">
         <v>2014</v>
       </c>
-      <c r="L89" s="38">
+      <c r="L89" s="36">
         <f t="shared" si="19"/>
         <v>0.12326382037323932</v>
       </c>
@@ -12846,7 +12902,7 @@
       <c r="K90" s="27">
         <v>2015</v>
       </c>
-      <c r="L90" s="38">
+      <c r="L90" s="36">
         <f t="shared" si="19"/>
         <v>0.22271224949803139</v>
       </c>
@@ -12888,7 +12944,7 @@
       <c r="K91" s="27">
         <v>2016</v>
       </c>
-      <c r="L91" s="38">
+      <c r="L91" s="36">
         <f t="shared" si="19"/>
         <v>0.35919513540677045</v>
       </c>
@@ -12930,7 +12986,7 @@
       <c r="K92" s="27">
         <v>2017</v>
       </c>
-      <c r="L92" s="38">
+      <c r="L92" s="36">
         <f t="shared" si="19"/>
         <v>0.3501546884630693</v>
       </c>
@@ -12972,7 +13028,7 @@
       <c r="K93" s="27">
         <v>2018</v>
       </c>
-      <c r="L93" s="38">
+      <c r="L93" s="36">
         <f t="shared" si="19"/>
         <v>0.17623004232267206</v>
       </c>
@@ -13014,7 +13070,7 @@
       <c r="K94" s="27">
         <v>2019</v>
       </c>
-      <c r="L94" s="38">
+      <c r="L94" s="36">
         <f t="shared" si="19"/>
         <v>0.56511197801272917</v>
       </c>
